--- a/2019년 비아비솔루션스 건강검진 제안서_소중한메디케어.xlsx
+++ b/2019년 비아비솔루션스 건강검진 제안서_소중한메디케어.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\04_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29EF8B7-158C-474D-88A7-5F635549C1CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC53D33-E2A7-4E71-B7CE-C3BC21020D32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="공문" sheetId="3" r:id="rId1"/>
@@ -3517,7 +3517,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3765,6 +3765,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6798,7 +6804,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6896,9 +6902,6 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="143" fillId="0" borderId="7" xfId="1157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="143" fillId="0" borderId="7" xfId="1157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="141" fillId="4" borderId="7" xfId="1157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7156,6 +7159,45 @@
     <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="143" fillId="45" borderId="7" xfId="1157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="143" fillId="45" borderId="5" xfId="1157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="141" fillId="46" borderId="7" xfId="1157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="143" fillId="45" borderId="5" xfId="1157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="4" borderId="0" xfId="929" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="4" borderId="0" xfId="929" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="4" borderId="0" xfId="929" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="4" borderId="0" xfId="929" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="4" borderId="0" xfId="929" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="4" borderId="0" xfId="929" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="4" borderId="0" xfId="929" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="4" borderId="0" xfId="929" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="4" borderId="0" xfId="929" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="148" fillId="4" borderId="0" xfId="929" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7174,32 +7216,83 @@
     <xf numFmtId="0" fontId="155" fillId="4" borderId="0" xfId="929" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="4" borderId="0" xfId="929" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="4" borderId="0" xfId="929" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="158" fillId="4" borderId="0" xfId="929" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="158" fillId="4" borderId="0" xfId="929" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="158" fillId="4" borderId="0" xfId="929" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="158" fillId="4" borderId="0" xfId="929" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="158" fillId="4" borderId="0" xfId="929" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="4" borderId="0" xfId="929" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="152" fillId="4" borderId="0" xfId="929" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="142" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="143" fillId="0" borderId="11" xfId="1157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="143" fillId="0" borderId="20" xfId="1157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="143" fillId="0" borderId="8" xfId="1157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="141" fillId="0" borderId="11" xfId="1157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="141" fillId="0" borderId="8" xfId="1157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="140" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7240,96 +7333,6 @@
     <xf numFmtId="0" fontId="146" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="140" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="143" fillId="0" borderId="20" xfId="1157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="143" fillId="0" borderId="8" xfId="1157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="140" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="140" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="141" fillId="0" borderId="11" xfId="1157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="141" fillId="0" borderId="8" xfId="1157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="140" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="140" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="143" fillId="0" borderId="11" xfId="1157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="143" fillId="0" borderId="20" xfId="1157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="143" fillId="0" borderId="8" xfId="1157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="163" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7366,29 +7369,47 @@
     <xf numFmtId="0" fontId="163" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="143" fillId="45" borderId="7" xfId="1157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="143" fillId="45" borderId="5" xfId="1157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="141" fillId="46" borderId="7" xfId="1157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="143" fillId="46" borderId="7" xfId="1157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="47" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="141" fillId="45" borderId="7" xfId="1157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="143" fillId="46" borderId="5" xfId="1157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="143" fillId="45" borderId="5" xfId="1157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="141" fillId="46" borderId="5" xfId="1157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="143" fillId="46" borderId="5" xfId="1157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="47" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="47" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="47" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="47" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="47" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="143" fillId="46" borderId="8" xfId="1157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="143" fillId="45" borderId="20" xfId="1157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="143" fillId="45" borderId="8" xfId="1157" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="47" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="47" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1159">
@@ -18648,942 +18669,951 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="3" width="9" style="62"/>
-    <col min="4" max="4" width="19.7109375" style="62" customWidth="1"/>
-    <col min="5" max="5" width="4" style="62" customWidth="1"/>
-    <col min="6" max="7" width="9" style="62"/>
-    <col min="8" max="8" width="4" style="62" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="62" customWidth="1"/>
-    <col min="10" max="257" width="9" style="62"/>
-    <col min="258" max="258" width="19.7109375" style="62" customWidth="1"/>
-    <col min="259" max="259" width="4" style="62" customWidth="1"/>
-    <col min="260" max="261" width="9" style="62"/>
-    <col min="262" max="262" width="4" style="62" customWidth="1"/>
-    <col min="263" max="263" width="9.7109375" style="62" customWidth="1"/>
-    <col min="264" max="264" width="2" style="62" customWidth="1"/>
-    <col min="265" max="513" width="9" style="62"/>
-    <col min="514" max="514" width="19.7109375" style="62" customWidth="1"/>
-    <col min="515" max="515" width="4" style="62" customWidth="1"/>
-    <col min="516" max="517" width="9" style="62"/>
-    <col min="518" max="518" width="4" style="62" customWidth="1"/>
-    <col min="519" max="519" width="9.7109375" style="62" customWidth="1"/>
-    <col min="520" max="520" width="2" style="62" customWidth="1"/>
-    <col min="521" max="769" width="9" style="62"/>
-    <col min="770" max="770" width="19.7109375" style="62" customWidth="1"/>
-    <col min="771" max="771" width="4" style="62" customWidth="1"/>
-    <col min="772" max="773" width="9" style="62"/>
-    <col min="774" max="774" width="4" style="62" customWidth="1"/>
-    <col min="775" max="775" width="9.7109375" style="62" customWidth="1"/>
-    <col min="776" max="776" width="2" style="62" customWidth="1"/>
-    <col min="777" max="1025" width="9" style="62"/>
-    <col min="1026" max="1026" width="19.7109375" style="62" customWidth="1"/>
-    <col min="1027" max="1027" width="4" style="62" customWidth="1"/>
-    <col min="1028" max="1029" width="9" style="62"/>
-    <col min="1030" max="1030" width="4" style="62" customWidth="1"/>
-    <col min="1031" max="1031" width="9.7109375" style="62" customWidth="1"/>
-    <col min="1032" max="1032" width="2" style="62" customWidth="1"/>
-    <col min="1033" max="1281" width="9" style="62"/>
-    <col min="1282" max="1282" width="19.7109375" style="62" customWidth="1"/>
-    <col min="1283" max="1283" width="4" style="62" customWidth="1"/>
-    <col min="1284" max="1285" width="9" style="62"/>
-    <col min="1286" max="1286" width="4" style="62" customWidth="1"/>
-    <col min="1287" max="1287" width="9.7109375" style="62" customWidth="1"/>
-    <col min="1288" max="1288" width="2" style="62" customWidth="1"/>
-    <col min="1289" max="1537" width="9" style="62"/>
-    <col min="1538" max="1538" width="19.7109375" style="62" customWidth="1"/>
-    <col min="1539" max="1539" width="4" style="62" customWidth="1"/>
-    <col min="1540" max="1541" width="9" style="62"/>
-    <col min="1542" max="1542" width="4" style="62" customWidth="1"/>
-    <col min="1543" max="1543" width="9.7109375" style="62" customWidth="1"/>
-    <col min="1544" max="1544" width="2" style="62" customWidth="1"/>
-    <col min="1545" max="1793" width="9" style="62"/>
-    <col min="1794" max="1794" width="19.7109375" style="62" customWidth="1"/>
-    <col min="1795" max="1795" width="4" style="62" customWidth="1"/>
-    <col min="1796" max="1797" width="9" style="62"/>
-    <col min="1798" max="1798" width="4" style="62" customWidth="1"/>
-    <col min="1799" max="1799" width="9.7109375" style="62" customWidth="1"/>
-    <col min="1800" max="1800" width="2" style="62" customWidth="1"/>
-    <col min="1801" max="2049" width="9" style="62"/>
-    <col min="2050" max="2050" width="19.7109375" style="62" customWidth="1"/>
-    <col min="2051" max="2051" width="4" style="62" customWidth="1"/>
-    <col min="2052" max="2053" width="9" style="62"/>
-    <col min="2054" max="2054" width="4" style="62" customWidth="1"/>
-    <col min="2055" max="2055" width="9.7109375" style="62" customWidth="1"/>
-    <col min="2056" max="2056" width="2" style="62" customWidth="1"/>
-    <col min="2057" max="2305" width="9" style="62"/>
-    <col min="2306" max="2306" width="19.7109375" style="62" customWidth="1"/>
-    <col min="2307" max="2307" width="4" style="62" customWidth="1"/>
-    <col min="2308" max="2309" width="9" style="62"/>
-    <col min="2310" max="2310" width="4" style="62" customWidth="1"/>
-    <col min="2311" max="2311" width="9.7109375" style="62" customWidth="1"/>
-    <col min="2312" max="2312" width="2" style="62" customWidth="1"/>
-    <col min="2313" max="2561" width="9" style="62"/>
-    <col min="2562" max="2562" width="19.7109375" style="62" customWidth="1"/>
-    <col min="2563" max="2563" width="4" style="62" customWidth="1"/>
-    <col min="2564" max="2565" width="9" style="62"/>
-    <col min="2566" max="2566" width="4" style="62" customWidth="1"/>
-    <col min="2567" max="2567" width="9.7109375" style="62" customWidth="1"/>
-    <col min="2568" max="2568" width="2" style="62" customWidth="1"/>
-    <col min="2569" max="2817" width="9" style="62"/>
-    <col min="2818" max="2818" width="19.7109375" style="62" customWidth="1"/>
-    <col min="2819" max="2819" width="4" style="62" customWidth="1"/>
-    <col min="2820" max="2821" width="9" style="62"/>
-    <col min="2822" max="2822" width="4" style="62" customWidth="1"/>
-    <col min="2823" max="2823" width="9.7109375" style="62" customWidth="1"/>
-    <col min="2824" max="2824" width="2" style="62" customWidth="1"/>
-    <col min="2825" max="3073" width="9" style="62"/>
-    <col min="3074" max="3074" width="19.7109375" style="62" customWidth="1"/>
-    <col min="3075" max="3075" width="4" style="62" customWidth="1"/>
-    <col min="3076" max="3077" width="9" style="62"/>
-    <col min="3078" max="3078" width="4" style="62" customWidth="1"/>
-    <col min="3079" max="3079" width="9.7109375" style="62" customWidth="1"/>
-    <col min="3080" max="3080" width="2" style="62" customWidth="1"/>
-    <col min="3081" max="3329" width="9" style="62"/>
-    <col min="3330" max="3330" width="19.7109375" style="62" customWidth="1"/>
-    <col min="3331" max="3331" width="4" style="62" customWidth="1"/>
-    <col min="3332" max="3333" width="9" style="62"/>
-    <col min="3334" max="3334" width="4" style="62" customWidth="1"/>
-    <col min="3335" max="3335" width="9.7109375" style="62" customWidth="1"/>
-    <col min="3336" max="3336" width="2" style="62" customWidth="1"/>
-    <col min="3337" max="3585" width="9" style="62"/>
-    <col min="3586" max="3586" width="19.7109375" style="62" customWidth="1"/>
-    <col min="3587" max="3587" width="4" style="62" customWidth="1"/>
-    <col min="3588" max="3589" width="9" style="62"/>
-    <col min="3590" max="3590" width="4" style="62" customWidth="1"/>
-    <col min="3591" max="3591" width="9.7109375" style="62" customWidth="1"/>
-    <col min="3592" max="3592" width="2" style="62" customWidth="1"/>
-    <col min="3593" max="3841" width="9" style="62"/>
-    <col min="3842" max="3842" width="19.7109375" style="62" customWidth="1"/>
-    <col min="3843" max="3843" width="4" style="62" customWidth="1"/>
-    <col min="3844" max="3845" width="9" style="62"/>
-    <col min="3846" max="3846" width="4" style="62" customWidth="1"/>
-    <col min="3847" max="3847" width="9.7109375" style="62" customWidth="1"/>
-    <col min="3848" max="3848" width="2" style="62" customWidth="1"/>
-    <col min="3849" max="4097" width="9" style="62"/>
-    <col min="4098" max="4098" width="19.7109375" style="62" customWidth="1"/>
-    <col min="4099" max="4099" width="4" style="62" customWidth="1"/>
-    <col min="4100" max="4101" width="9" style="62"/>
-    <col min="4102" max="4102" width="4" style="62" customWidth="1"/>
-    <col min="4103" max="4103" width="9.7109375" style="62" customWidth="1"/>
-    <col min="4104" max="4104" width="2" style="62" customWidth="1"/>
-    <col min="4105" max="4353" width="9" style="62"/>
-    <col min="4354" max="4354" width="19.7109375" style="62" customWidth="1"/>
-    <col min="4355" max="4355" width="4" style="62" customWidth="1"/>
-    <col min="4356" max="4357" width="9" style="62"/>
-    <col min="4358" max="4358" width="4" style="62" customWidth="1"/>
-    <col min="4359" max="4359" width="9.7109375" style="62" customWidth="1"/>
-    <col min="4360" max="4360" width="2" style="62" customWidth="1"/>
-    <col min="4361" max="4609" width="9" style="62"/>
-    <col min="4610" max="4610" width="19.7109375" style="62" customWidth="1"/>
-    <col min="4611" max="4611" width="4" style="62" customWidth="1"/>
-    <col min="4612" max="4613" width="9" style="62"/>
-    <col min="4614" max="4614" width="4" style="62" customWidth="1"/>
-    <col min="4615" max="4615" width="9.7109375" style="62" customWidth="1"/>
-    <col min="4616" max="4616" width="2" style="62" customWidth="1"/>
-    <col min="4617" max="4865" width="9" style="62"/>
-    <col min="4866" max="4866" width="19.7109375" style="62" customWidth="1"/>
-    <col min="4867" max="4867" width="4" style="62" customWidth="1"/>
-    <col min="4868" max="4869" width="9" style="62"/>
-    <col min="4870" max="4870" width="4" style="62" customWidth="1"/>
-    <col min="4871" max="4871" width="9.7109375" style="62" customWidth="1"/>
-    <col min="4872" max="4872" width="2" style="62" customWidth="1"/>
-    <col min="4873" max="5121" width="9" style="62"/>
-    <col min="5122" max="5122" width="19.7109375" style="62" customWidth="1"/>
-    <col min="5123" max="5123" width="4" style="62" customWidth="1"/>
-    <col min="5124" max="5125" width="9" style="62"/>
-    <col min="5126" max="5126" width="4" style="62" customWidth="1"/>
-    <col min="5127" max="5127" width="9.7109375" style="62" customWidth="1"/>
-    <col min="5128" max="5128" width="2" style="62" customWidth="1"/>
-    <col min="5129" max="5377" width="9" style="62"/>
-    <col min="5378" max="5378" width="19.7109375" style="62" customWidth="1"/>
-    <col min="5379" max="5379" width="4" style="62" customWidth="1"/>
-    <col min="5380" max="5381" width="9" style="62"/>
-    <col min="5382" max="5382" width="4" style="62" customWidth="1"/>
-    <col min="5383" max="5383" width="9.7109375" style="62" customWidth="1"/>
-    <col min="5384" max="5384" width="2" style="62" customWidth="1"/>
-    <col min="5385" max="5633" width="9" style="62"/>
-    <col min="5634" max="5634" width="19.7109375" style="62" customWidth="1"/>
-    <col min="5635" max="5635" width="4" style="62" customWidth="1"/>
-    <col min="5636" max="5637" width="9" style="62"/>
-    <col min="5638" max="5638" width="4" style="62" customWidth="1"/>
-    <col min="5639" max="5639" width="9.7109375" style="62" customWidth="1"/>
-    <col min="5640" max="5640" width="2" style="62" customWidth="1"/>
-    <col min="5641" max="5889" width="9" style="62"/>
-    <col min="5890" max="5890" width="19.7109375" style="62" customWidth="1"/>
-    <col min="5891" max="5891" width="4" style="62" customWidth="1"/>
-    <col min="5892" max="5893" width="9" style="62"/>
-    <col min="5894" max="5894" width="4" style="62" customWidth="1"/>
-    <col min="5895" max="5895" width="9.7109375" style="62" customWidth="1"/>
-    <col min="5896" max="5896" width="2" style="62" customWidth="1"/>
-    <col min="5897" max="6145" width="9" style="62"/>
-    <col min="6146" max="6146" width="19.7109375" style="62" customWidth="1"/>
-    <col min="6147" max="6147" width="4" style="62" customWidth="1"/>
-    <col min="6148" max="6149" width="9" style="62"/>
-    <col min="6150" max="6150" width="4" style="62" customWidth="1"/>
-    <col min="6151" max="6151" width="9.7109375" style="62" customWidth="1"/>
-    <col min="6152" max="6152" width="2" style="62" customWidth="1"/>
-    <col min="6153" max="6401" width="9" style="62"/>
-    <col min="6402" max="6402" width="19.7109375" style="62" customWidth="1"/>
-    <col min="6403" max="6403" width="4" style="62" customWidth="1"/>
-    <col min="6404" max="6405" width="9" style="62"/>
-    <col min="6406" max="6406" width="4" style="62" customWidth="1"/>
-    <col min="6407" max="6407" width="9.7109375" style="62" customWidth="1"/>
-    <col min="6408" max="6408" width="2" style="62" customWidth="1"/>
-    <col min="6409" max="6657" width="9" style="62"/>
-    <col min="6658" max="6658" width="19.7109375" style="62" customWidth="1"/>
-    <col min="6659" max="6659" width="4" style="62" customWidth="1"/>
-    <col min="6660" max="6661" width="9" style="62"/>
-    <col min="6662" max="6662" width="4" style="62" customWidth="1"/>
-    <col min="6663" max="6663" width="9.7109375" style="62" customWidth="1"/>
-    <col min="6664" max="6664" width="2" style="62" customWidth="1"/>
-    <col min="6665" max="6913" width="9" style="62"/>
-    <col min="6914" max="6914" width="19.7109375" style="62" customWidth="1"/>
-    <col min="6915" max="6915" width="4" style="62" customWidth="1"/>
-    <col min="6916" max="6917" width="9" style="62"/>
-    <col min="6918" max="6918" width="4" style="62" customWidth="1"/>
-    <col min="6919" max="6919" width="9.7109375" style="62" customWidth="1"/>
-    <col min="6920" max="6920" width="2" style="62" customWidth="1"/>
-    <col min="6921" max="7169" width="9" style="62"/>
-    <col min="7170" max="7170" width="19.7109375" style="62" customWidth="1"/>
-    <col min="7171" max="7171" width="4" style="62" customWidth="1"/>
-    <col min="7172" max="7173" width="9" style="62"/>
-    <col min="7174" max="7174" width="4" style="62" customWidth="1"/>
-    <col min="7175" max="7175" width="9.7109375" style="62" customWidth="1"/>
-    <col min="7176" max="7176" width="2" style="62" customWidth="1"/>
-    <col min="7177" max="7425" width="9" style="62"/>
-    <col min="7426" max="7426" width="19.7109375" style="62" customWidth="1"/>
-    <col min="7427" max="7427" width="4" style="62" customWidth="1"/>
-    <col min="7428" max="7429" width="9" style="62"/>
-    <col min="7430" max="7430" width="4" style="62" customWidth="1"/>
-    <col min="7431" max="7431" width="9.7109375" style="62" customWidth="1"/>
-    <col min="7432" max="7432" width="2" style="62" customWidth="1"/>
-    <col min="7433" max="7681" width="9" style="62"/>
-    <col min="7682" max="7682" width="19.7109375" style="62" customWidth="1"/>
-    <col min="7683" max="7683" width="4" style="62" customWidth="1"/>
-    <col min="7684" max="7685" width="9" style="62"/>
-    <col min="7686" max="7686" width="4" style="62" customWidth="1"/>
-    <col min="7687" max="7687" width="9.7109375" style="62" customWidth="1"/>
-    <col min="7688" max="7688" width="2" style="62" customWidth="1"/>
-    <col min="7689" max="7937" width="9" style="62"/>
-    <col min="7938" max="7938" width="19.7109375" style="62" customWidth="1"/>
-    <col min="7939" max="7939" width="4" style="62" customWidth="1"/>
-    <col min="7940" max="7941" width="9" style="62"/>
-    <col min="7942" max="7942" width="4" style="62" customWidth="1"/>
-    <col min="7943" max="7943" width="9.7109375" style="62" customWidth="1"/>
-    <col min="7944" max="7944" width="2" style="62" customWidth="1"/>
-    <col min="7945" max="8193" width="9" style="62"/>
-    <col min="8194" max="8194" width="19.7109375" style="62" customWidth="1"/>
-    <col min="8195" max="8195" width="4" style="62" customWidth="1"/>
-    <col min="8196" max="8197" width="9" style="62"/>
-    <col min="8198" max="8198" width="4" style="62" customWidth="1"/>
-    <col min="8199" max="8199" width="9.7109375" style="62" customWidth="1"/>
-    <col min="8200" max="8200" width="2" style="62" customWidth="1"/>
-    <col min="8201" max="8449" width="9" style="62"/>
-    <col min="8450" max="8450" width="19.7109375" style="62" customWidth="1"/>
-    <col min="8451" max="8451" width="4" style="62" customWidth="1"/>
-    <col min="8452" max="8453" width="9" style="62"/>
-    <col min="8454" max="8454" width="4" style="62" customWidth="1"/>
-    <col min="8455" max="8455" width="9.7109375" style="62" customWidth="1"/>
-    <col min="8456" max="8456" width="2" style="62" customWidth="1"/>
-    <col min="8457" max="8705" width="9" style="62"/>
-    <col min="8706" max="8706" width="19.7109375" style="62" customWidth="1"/>
-    <col min="8707" max="8707" width="4" style="62" customWidth="1"/>
-    <col min="8708" max="8709" width="9" style="62"/>
-    <col min="8710" max="8710" width="4" style="62" customWidth="1"/>
-    <col min="8711" max="8711" width="9.7109375" style="62" customWidth="1"/>
-    <col min="8712" max="8712" width="2" style="62" customWidth="1"/>
-    <col min="8713" max="8961" width="9" style="62"/>
-    <col min="8962" max="8962" width="19.7109375" style="62" customWidth="1"/>
-    <col min="8963" max="8963" width="4" style="62" customWidth="1"/>
-    <col min="8964" max="8965" width="9" style="62"/>
-    <col min="8966" max="8966" width="4" style="62" customWidth="1"/>
-    <col min="8967" max="8967" width="9.7109375" style="62" customWidth="1"/>
-    <col min="8968" max="8968" width="2" style="62" customWidth="1"/>
-    <col min="8969" max="9217" width="9" style="62"/>
-    <col min="9218" max="9218" width="19.7109375" style="62" customWidth="1"/>
-    <col min="9219" max="9219" width="4" style="62" customWidth="1"/>
-    <col min="9220" max="9221" width="9" style="62"/>
-    <col min="9222" max="9222" width="4" style="62" customWidth="1"/>
-    <col min="9223" max="9223" width="9.7109375" style="62" customWidth="1"/>
-    <col min="9224" max="9224" width="2" style="62" customWidth="1"/>
-    <col min="9225" max="9473" width="9" style="62"/>
-    <col min="9474" max="9474" width="19.7109375" style="62" customWidth="1"/>
-    <col min="9475" max="9475" width="4" style="62" customWidth="1"/>
-    <col min="9476" max="9477" width="9" style="62"/>
-    <col min="9478" max="9478" width="4" style="62" customWidth="1"/>
-    <col min="9479" max="9479" width="9.7109375" style="62" customWidth="1"/>
-    <col min="9480" max="9480" width="2" style="62" customWidth="1"/>
-    <col min="9481" max="9729" width="9" style="62"/>
-    <col min="9730" max="9730" width="19.7109375" style="62" customWidth="1"/>
-    <col min="9731" max="9731" width="4" style="62" customWidth="1"/>
-    <col min="9732" max="9733" width="9" style="62"/>
-    <col min="9734" max="9734" width="4" style="62" customWidth="1"/>
-    <col min="9735" max="9735" width="9.7109375" style="62" customWidth="1"/>
-    <col min="9736" max="9736" width="2" style="62" customWidth="1"/>
-    <col min="9737" max="9985" width="9" style="62"/>
-    <col min="9986" max="9986" width="19.7109375" style="62" customWidth="1"/>
-    <col min="9987" max="9987" width="4" style="62" customWidth="1"/>
-    <col min="9988" max="9989" width="9" style="62"/>
-    <col min="9990" max="9990" width="4" style="62" customWidth="1"/>
-    <col min="9991" max="9991" width="9.7109375" style="62" customWidth="1"/>
-    <col min="9992" max="9992" width="2" style="62" customWidth="1"/>
-    <col min="9993" max="10241" width="9" style="62"/>
-    <col min="10242" max="10242" width="19.7109375" style="62" customWidth="1"/>
-    <col min="10243" max="10243" width="4" style="62" customWidth="1"/>
-    <col min="10244" max="10245" width="9" style="62"/>
-    <col min="10246" max="10246" width="4" style="62" customWidth="1"/>
-    <col min="10247" max="10247" width="9.7109375" style="62" customWidth="1"/>
-    <col min="10248" max="10248" width="2" style="62" customWidth="1"/>
-    <col min="10249" max="10497" width="9" style="62"/>
-    <col min="10498" max="10498" width="19.7109375" style="62" customWidth="1"/>
-    <col min="10499" max="10499" width="4" style="62" customWidth="1"/>
-    <col min="10500" max="10501" width="9" style="62"/>
-    <col min="10502" max="10502" width="4" style="62" customWidth="1"/>
-    <col min="10503" max="10503" width="9.7109375" style="62" customWidth="1"/>
-    <col min="10504" max="10504" width="2" style="62" customWidth="1"/>
-    <col min="10505" max="10753" width="9" style="62"/>
-    <col min="10754" max="10754" width="19.7109375" style="62" customWidth="1"/>
-    <col min="10755" max="10755" width="4" style="62" customWidth="1"/>
-    <col min="10756" max="10757" width="9" style="62"/>
-    <col min="10758" max="10758" width="4" style="62" customWidth="1"/>
-    <col min="10759" max="10759" width="9.7109375" style="62" customWidth="1"/>
-    <col min="10760" max="10760" width="2" style="62" customWidth="1"/>
-    <col min="10761" max="11009" width="9" style="62"/>
-    <col min="11010" max="11010" width="19.7109375" style="62" customWidth="1"/>
-    <col min="11011" max="11011" width="4" style="62" customWidth="1"/>
-    <col min="11012" max="11013" width="9" style="62"/>
-    <col min="11014" max="11014" width="4" style="62" customWidth="1"/>
-    <col min="11015" max="11015" width="9.7109375" style="62" customWidth="1"/>
-    <col min="11016" max="11016" width="2" style="62" customWidth="1"/>
-    <col min="11017" max="11265" width="9" style="62"/>
-    <col min="11266" max="11266" width="19.7109375" style="62" customWidth="1"/>
-    <col min="11267" max="11267" width="4" style="62" customWidth="1"/>
-    <col min="11268" max="11269" width="9" style="62"/>
-    <col min="11270" max="11270" width="4" style="62" customWidth="1"/>
-    <col min="11271" max="11271" width="9.7109375" style="62" customWidth="1"/>
-    <col min="11272" max="11272" width="2" style="62" customWidth="1"/>
-    <col min="11273" max="11521" width="9" style="62"/>
-    <col min="11522" max="11522" width="19.7109375" style="62" customWidth="1"/>
-    <col min="11523" max="11523" width="4" style="62" customWidth="1"/>
-    <col min="11524" max="11525" width="9" style="62"/>
-    <col min="11526" max="11526" width="4" style="62" customWidth="1"/>
-    <col min="11527" max="11527" width="9.7109375" style="62" customWidth="1"/>
-    <col min="11528" max="11528" width="2" style="62" customWidth="1"/>
-    <col min="11529" max="11777" width="9" style="62"/>
-    <col min="11778" max="11778" width="19.7109375" style="62" customWidth="1"/>
-    <col min="11779" max="11779" width="4" style="62" customWidth="1"/>
-    <col min="11780" max="11781" width="9" style="62"/>
-    <col min="11782" max="11782" width="4" style="62" customWidth="1"/>
-    <col min="11783" max="11783" width="9.7109375" style="62" customWidth="1"/>
-    <col min="11784" max="11784" width="2" style="62" customWidth="1"/>
-    <col min="11785" max="12033" width="9" style="62"/>
-    <col min="12034" max="12034" width="19.7109375" style="62" customWidth="1"/>
-    <col min="12035" max="12035" width="4" style="62" customWidth="1"/>
-    <col min="12036" max="12037" width="9" style="62"/>
-    <col min="12038" max="12038" width="4" style="62" customWidth="1"/>
-    <col min="12039" max="12039" width="9.7109375" style="62" customWidth="1"/>
-    <col min="12040" max="12040" width="2" style="62" customWidth="1"/>
-    <col min="12041" max="12289" width="9" style="62"/>
-    <col min="12290" max="12290" width="19.7109375" style="62" customWidth="1"/>
-    <col min="12291" max="12291" width="4" style="62" customWidth="1"/>
-    <col min="12292" max="12293" width="9" style="62"/>
-    <col min="12294" max="12294" width="4" style="62" customWidth="1"/>
-    <col min="12295" max="12295" width="9.7109375" style="62" customWidth="1"/>
-    <col min="12296" max="12296" width="2" style="62" customWidth="1"/>
-    <col min="12297" max="12545" width="9" style="62"/>
-    <col min="12546" max="12546" width="19.7109375" style="62" customWidth="1"/>
-    <col min="12547" max="12547" width="4" style="62" customWidth="1"/>
-    <col min="12548" max="12549" width="9" style="62"/>
-    <col min="12550" max="12550" width="4" style="62" customWidth="1"/>
-    <col min="12551" max="12551" width="9.7109375" style="62" customWidth="1"/>
-    <col min="12552" max="12552" width="2" style="62" customWidth="1"/>
-    <col min="12553" max="12801" width="9" style="62"/>
-    <col min="12802" max="12802" width="19.7109375" style="62" customWidth="1"/>
-    <col min="12803" max="12803" width="4" style="62" customWidth="1"/>
-    <col min="12804" max="12805" width="9" style="62"/>
-    <col min="12806" max="12806" width="4" style="62" customWidth="1"/>
-    <col min="12807" max="12807" width="9.7109375" style="62" customWidth="1"/>
-    <col min="12808" max="12808" width="2" style="62" customWidth="1"/>
-    <col min="12809" max="13057" width="9" style="62"/>
-    <col min="13058" max="13058" width="19.7109375" style="62" customWidth="1"/>
-    <col min="13059" max="13059" width="4" style="62" customWidth="1"/>
-    <col min="13060" max="13061" width="9" style="62"/>
-    <col min="13062" max="13062" width="4" style="62" customWidth="1"/>
-    <col min="13063" max="13063" width="9.7109375" style="62" customWidth="1"/>
-    <col min="13064" max="13064" width="2" style="62" customWidth="1"/>
-    <col min="13065" max="13313" width="9" style="62"/>
-    <col min="13314" max="13314" width="19.7109375" style="62" customWidth="1"/>
-    <col min="13315" max="13315" width="4" style="62" customWidth="1"/>
-    <col min="13316" max="13317" width="9" style="62"/>
-    <col min="13318" max="13318" width="4" style="62" customWidth="1"/>
-    <col min="13319" max="13319" width="9.7109375" style="62" customWidth="1"/>
-    <col min="13320" max="13320" width="2" style="62" customWidth="1"/>
-    <col min="13321" max="13569" width="9" style="62"/>
-    <col min="13570" max="13570" width="19.7109375" style="62" customWidth="1"/>
-    <col min="13571" max="13571" width="4" style="62" customWidth="1"/>
-    <col min="13572" max="13573" width="9" style="62"/>
-    <col min="13574" max="13574" width="4" style="62" customWidth="1"/>
-    <col min="13575" max="13575" width="9.7109375" style="62" customWidth="1"/>
-    <col min="13576" max="13576" width="2" style="62" customWidth="1"/>
-    <col min="13577" max="13825" width="9" style="62"/>
-    <col min="13826" max="13826" width="19.7109375" style="62" customWidth="1"/>
-    <col min="13827" max="13827" width="4" style="62" customWidth="1"/>
-    <col min="13828" max="13829" width="9" style="62"/>
-    <col min="13830" max="13830" width="4" style="62" customWidth="1"/>
-    <col min="13831" max="13831" width="9.7109375" style="62" customWidth="1"/>
-    <col min="13832" max="13832" width="2" style="62" customWidth="1"/>
-    <col min="13833" max="14081" width="9" style="62"/>
-    <col min="14082" max="14082" width="19.7109375" style="62" customWidth="1"/>
-    <col min="14083" max="14083" width="4" style="62" customWidth="1"/>
-    <col min="14084" max="14085" width="9" style="62"/>
-    <col min="14086" max="14086" width="4" style="62" customWidth="1"/>
-    <col min="14087" max="14087" width="9.7109375" style="62" customWidth="1"/>
-    <col min="14088" max="14088" width="2" style="62" customWidth="1"/>
-    <col min="14089" max="14337" width="9" style="62"/>
-    <col min="14338" max="14338" width="19.7109375" style="62" customWidth="1"/>
-    <col min="14339" max="14339" width="4" style="62" customWidth="1"/>
-    <col min="14340" max="14341" width="9" style="62"/>
-    <col min="14342" max="14342" width="4" style="62" customWidth="1"/>
-    <col min="14343" max="14343" width="9.7109375" style="62" customWidth="1"/>
-    <col min="14344" max="14344" width="2" style="62" customWidth="1"/>
-    <col min="14345" max="14593" width="9" style="62"/>
-    <col min="14594" max="14594" width="19.7109375" style="62" customWidth="1"/>
-    <col min="14595" max="14595" width="4" style="62" customWidth="1"/>
-    <col min="14596" max="14597" width="9" style="62"/>
-    <col min="14598" max="14598" width="4" style="62" customWidth="1"/>
-    <col min="14599" max="14599" width="9.7109375" style="62" customWidth="1"/>
-    <col min="14600" max="14600" width="2" style="62" customWidth="1"/>
-    <col min="14601" max="14849" width="9" style="62"/>
-    <col min="14850" max="14850" width="19.7109375" style="62" customWidth="1"/>
-    <col min="14851" max="14851" width="4" style="62" customWidth="1"/>
-    <col min="14852" max="14853" width="9" style="62"/>
-    <col min="14854" max="14854" width="4" style="62" customWidth="1"/>
-    <col min="14855" max="14855" width="9.7109375" style="62" customWidth="1"/>
-    <col min="14856" max="14856" width="2" style="62" customWidth="1"/>
-    <col min="14857" max="15105" width="9" style="62"/>
-    <col min="15106" max="15106" width="19.7109375" style="62" customWidth="1"/>
-    <col min="15107" max="15107" width="4" style="62" customWidth="1"/>
-    <col min="15108" max="15109" width="9" style="62"/>
-    <col min="15110" max="15110" width="4" style="62" customWidth="1"/>
-    <col min="15111" max="15111" width="9.7109375" style="62" customWidth="1"/>
-    <col min="15112" max="15112" width="2" style="62" customWidth="1"/>
-    <col min="15113" max="15361" width="9" style="62"/>
-    <col min="15362" max="15362" width="19.7109375" style="62" customWidth="1"/>
-    <col min="15363" max="15363" width="4" style="62" customWidth="1"/>
-    <col min="15364" max="15365" width="9" style="62"/>
-    <col min="15366" max="15366" width="4" style="62" customWidth="1"/>
-    <col min="15367" max="15367" width="9.7109375" style="62" customWidth="1"/>
-    <col min="15368" max="15368" width="2" style="62" customWidth="1"/>
-    <col min="15369" max="15617" width="9" style="62"/>
-    <col min="15618" max="15618" width="19.7109375" style="62" customWidth="1"/>
-    <col min="15619" max="15619" width="4" style="62" customWidth="1"/>
-    <col min="15620" max="15621" width="9" style="62"/>
-    <col min="15622" max="15622" width="4" style="62" customWidth="1"/>
-    <col min="15623" max="15623" width="9.7109375" style="62" customWidth="1"/>
-    <col min="15624" max="15624" width="2" style="62" customWidth="1"/>
-    <col min="15625" max="15873" width="9" style="62"/>
-    <col min="15874" max="15874" width="19.7109375" style="62" customWidth="1"/>
-    <col min="15875" max="15875" width="4" style="62" customWidth="1"/>
-    <col min="15876" max="15877" width="9" style="62"/>
-    <col min="15878" max="15878" width="4" style="62" customWidth="1"/>
-    <col min="15879" max="15879" width="9.7109375" style="62" customWidth="1"/>
-    <col min="15880" max="15880" width="2" style="62" customWidth="1"/>
-    <col min="15881" max="16129" width="9" style="62"/>
-    <col min="16130" max="16130" width="19.7109375" style="62" customWidth="1"/>
-    <col min="16131" max="16131" width="4" style="62" customWidth="1"/>
-    <col min="16132" max="16133" width="9" style="62"/>
-    <col min="16134" max="16134" width="4" style="62" customWidth="1"/>
-    <col min="16135" max="16135" width="9.7109375" style="62" customWidth="1"/>
-    <col min="16136" max="16136" width="2" style="62" customWidth="1"/>
-    <col min="16137" max="16384" width="9" style="62"/>
+    <col min="1" max="3" width="9" style="61"/>
+    <col min="4" max="4" width="19.7109375" style="61" customWidth="1"/>
+    <col min="5" max="5" width="4" style="61" customWidth="1"/>
+    <col min="6" max="7" width="9" style="61"/>
+    <col min="8" max="8" width="4" style="61" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="61" customWidth="1"/>
+    <col min="10" max="257" width="9" style="61"/>
+    <col min="258" max="258" width="19.7109375" style="61" customWidth="1"/>
+    <col min="259" max="259" width="4" style="61" customWidth="1"/>
+    <col min="260" max="261" width="9" style="61"/>
+    <col min="262" max="262" width="4" style="61" customWidth="1"/>
+    <col min="263" max="263" width="9.7109375" style="61" customWidth="1"/>
+    <col min="264" max="264" width="2" style="61" customWidth="1"/>
+    <col min="265" max="513" width="9" style="61"/>
+    <col min="514" max="514" width="19.7109375" style="61" customWidth="1"/>
+    <col min="515" max="515" width="4" style="61" customWidth="1"/>
+    <col min="516" max="517" width="9" style="61"/>
+    <col min="518" max="518" width="4" style="61" customWidth="1"/>
+    <col min="519" max="519" width="9.7109375" style="61" customWidth="1"/>
+    <col min="520" max="520" width="2" style="61" customWidth="1"/>
+    <col min="521" max="769" width="9" style="61"/>
+    <col min="770" max="770" width="19.7109375" style="61" customWidth="1"/>
+    <col min="771" max="771" width="4" style="61" customWidth="1"/>
+    <col min="772" max="773" width="9" style="61"/>
+    <col min="774" max="774" width="4" style="61" customWidth="1"/>
+    <col min="775" max="775" width="9.7109375" style="61" customWidth="1"/>
+    <col min="776" max="776" width="2" style="61" customWidth="1"/>
+    <col min="777" max="1025" width="9" style="61"/>
+    <col min="1026" max="1026" width="19.7109375" style="61" customWidth="1"/>
+    <col min="1027" max="1027" width="4" style="61" customWidth="1"/>
+    <col min="1028" max="1029" width="9" style="61"/>
+    <col min="1030" max="1030" width="4" style="61" customWidth="1"/>
+    <col min="1031" max="1031" width="9.7109375" style="61" customWidth="1"/>
+    <col min="1032" max="1032" width="2" style="61" customWidth="1"/>
+    <col min="1033" max="1281" width="9" style="61"/>
+    <col min="1282" max="1282" width="19.7109375" style="61" customWidth="1"/>
+    <col min="1283" max="1283" width="4" style="61" customWidth="1"/>
+    <col min="1284" max="1285" width="9" style="61"/>
+    <col min="1286" max="1286" width="4" style="61" customWidth="1"/>
+    <col min="1287" max="1287" width="9.7109375" style="61" customWidth="1"/>
+    <col min="1288" max="1288" width="2" style="61" customWidth="1"/>
+    <col min="1289" max="1537" width="9" style="61"/>
+    <col min="1538" max="1538" width="19.7109375" style="61" customWidth="1"/>
+    <col min="1539" max="1539" width="4" style="61" customWidth="1"/>
+    <col min="1540" max="1541" width="9" style="61"/>
+    <col min="1542" max="1542" width="4" style="61" customWidth="1"/>
+    <col min="1543" max="1543" width="9.7109375" style="61" customWidth="1"/>
+    <col min="1544" max="1544" width="2" style="61" customWidth="1"/>
+    <col min="1545" max="1793" width="9" style="61"/>
+    <col min="1794" max="1794" width="19.7109375" style="61" customWidth="1"/>
+    <col min="1795" max="1795" width="4" style="61" customWidth="1"/>
+    <col min="1796" max="1797" width="9" style="61"/>
+    <col min="1798" max="1798" width="4" style="61" customWidth="1"/>
+    <col min="1799" max="1799" width="9.7109375" style="61" customWidth="1"/>
+    <col min="1800" max="1800" width="2" style="61" customWidth="1"/>
+    <col min="1801" max="2049" width="9" style="61"/>
+    <col min="2050" max="2050" width="19.7109375" style="61" customWidth="1"/>
+    <col min="2051" max="2051" width="4" style="61" customWidth="1"/>
+    <col min="2052" max="2053" width="9" style="61"/>
+    <col min="2054" max="2054" width="4" style="61" customWidth="1"/>
+    <col min="2055" max="2055" width="9.7109375" style="61" customWidth="1"/>
+    <col min="2056" max="2056" width="2" style="61" customWidth="1"/>
+    <col min="2057" max="2305" width="9" style="61"/>
+    <col min="2306" max="2306" width="19.7109375" style="61" customWidth="1"/>
+    <col min="2307" max="2307" width="4" style="61" customWidth="1"/>
+    <col min="2308" max="2309" width="9" style="61"/>
+    <col min="2310" max="2310" width="4" style="61" customWidth="1"/>
+    <col min="2311" max="2311" width="9.7109375" style="61" customWidth="1"/>
+    <col min="2312" max="2312" width="2" style="61" customWidth="1"/>
+    <col min="2313" max="2561" width="9" style="61"/>
+    <col min="2562" max="2562" width="19.7109375" style="61" customWidth="1"/>
+    <col min="2563" max="2563" width="4" style="61" customWidth="1"/>
+    <col min="2564" max="2565" width="9" style="61"/>
+    <col min="2566" max="2566" width="4" style="61" customWidth="1"/>
+    <col min="2567" max="2567" width="9.7109375" style="61" customWidth="1"/>
+    <col min="2568" max="2568" width="2" style="61" customWidth="1"/>
+    <col min="2569" max="2817" width="9" style="61"/>
+    <col min="2818" max="2818" width="19.7109375" style="61" customWidth="1"/>
+    <col min="2819" max="2819" width="4" style="61" customWidth="1"/>
+    <col min="2820" max="2821" width="9" style="61"/>
+    <col min="2822" max="2822" width="4" style="61" customWidth="1"/>
+    <col min="2823" max="2823" width="9.7109375" style="61" customWidth="1"/>
+    <col min="2824" max="2824" width="2" style="61" customWidth="1"/>
+    <col min="2825" max="3073" width="9" style="61"/>
+    <col min="3074" max="3074" width="19.7109375" style="61" customWidth="1"/>
+    <col min="3075" max="3075" width="4" style="61" customWidth="1"/>
+    <col min="3076" max="3077" width="9" style="61"/>
+    <col min="3078" max="3078" width="4" style="61" customWidth="1"/>
+    <col min="3079" max="3079" width="9.7109375" style="61" customWidth="1"/>
+    <col min="3080" max="3080" width="2" style="61" customWidth="1"/>
+    <col min="3081" max="3329" width="9" style="61"/>
+    <col min="3330" max="3330" width="19.7109375" style="61" customWidth="1"/>
+    <col min="3331" max="3331" width="4" style="61" customWidth="1"/>
+    <col min="3332" max="3333" width="9" style="61"/>
+    <col min="3334" max="3334" width="4" style="61" customWidth="1"/>
+    <col min="3335" max="3335" width="9.7109375" style="61" customWidth="1"/>
+    <col min="3336" max="3336" width="2" style="61" customWidth="1"/>
+    <col min="3337" max="3585" width="9" style="61"/>
+    <col min="3586" max="3586" width="19.7109375" style="61" customWidth="1"/>
+    <col min="3587" max="3587" width="4" style="61" customWidth="1"/>
+    <col min="3588" max="3589" width="9" style="61"/>
+    <col min="3590" max="3590" width="4" style="61" customWidth="1"/>
+    <col min="3591" max="3591" width="9.7109375" style="61" customWidth="1"/>
+    <col min="3592" max="3592" width="2" style="61" customWidth="1"/>
+    <col min="3593" max="3841" width="9" style="61"/>
+    <col min="3842" max="3842" width="19.7109375" style="61" customWidth="1"/>
+    <col min="3843" max="3843" width="4" style="61" customWidth="1"/>
+    <col min="3844" max="3845" width="9" style="61"/>
+    <col min="3846" max="3846" width="4" style="61" customWidth="1"/>
+    <col min="3847" max="3847" width="9.7109375" style="61" customWidth="1"/>
+    <col min="3848" max="3848" width="2" style="61" customWidth="1"/>
+    <col min="3849" max="4097" width="9" style="61"/>
+    <col min="4098" max="4098" width="19.7109375" style="61" customWidth="1"/>
+    <col min="4099" max="4099" width="4" style="61" customWidth="1"/>
+    <col min="4100" max="4101" width="9" style="61"/>
+    <col min="4102" max="4102" width="4" style="61" customWidth="1"/>
+    <col min="4103" max="4103" width="9.7109375" style="61" customWidth="1"/>
+    <col min="4104" max="4104" width="2" style="61" customWidth="1"/>
+    <col min="4105" max="4353" width="9" style="61"/>
+    <col min="4354" max="4354" width="19.7109375" style="61" customWidth="1"/>
+    <col min="4355" max="4355" width="4" style="61" customWidth="1"/>
+    <col min="4356" max="4357" width="9" style="61"/>
+    <col min="4358" max="4358" width="4" style="61" customWidth="1"/>
+    <col min="4359" max="4359" width="9.7109375" style="61" customWidth="1"/>
+    <col min="4360" max="4360" width="2" style="61" customWidth="1"/>
+    <col min="4361" max="4609" width="9" style="61"/>
+    <col min="4610" max="4610" width="19.7109375" style="61" customWidth="1"/>
+    <col min="4611" max="4611" width="4" style="61" customWidth="1"/>
+    <col min="4612" max="4613" width="9" style="61"/>
+    <col min="4614" max="4614" width="4" style="61" customWidth="1"/>
+    <col min="4615" max="4615" width="9.7109375" style="61" customWidth="1"/>
+    <col min="4616" max="4616" width="2" style="61" customWidth="1"/>
+    <col min="4617" max="4865" width="9" style="61"/>
+    <col min="4866" max="4866" width="19.7109375" style="61" customWidth="1"/>
+    <col min="4867" max="4867" width="4" style="61" customWidth="1"/>
+    <col min="4868" max="4869" width="9" style="61"/>
+    <col min="4870" max="4870" width="4" style="61" customWidth="1"/>
+    <col min="4871" max="4871" width="9.7109375" style="61" customWidth="1"/>
+    <col min="4872" max="4872" width="2" style="61" customWidth="1"/>
+    <col min="4873" max="5121" width="9" style="61"/>
+    <col min="5122" max="5122" width="19.7109375" style="61" customWidth="1"/>
+    <col min="5123" max="5123" width="4" style="61" customWidth="1"/>
+    <col min="5124" max="5125" width="9" style="61"/>
+    <col min="5126" max="5126" width="4" style="61" customWidth="1"/>
+    <col min="5127" max="5127" width="9.7109375" style="61" customWidth="1"/>
+    <col min="5128" max="5128" width="2" style="61" customWidth="1"/>
+    <col min="5129" max="5377" width="9" style="61"/>
+    <col min="5378" max="5378" width="19.7109375" style="61" customWidth="1"/>
+    <col min="5379" max="5379" width="4" style="61" customWidth="1"/>
+    <col min="5380" max="5381" width="9" style="61"/>
+    <col min="5382" max="5382" width="4" style="61" customWidth="1"/>
+    <col min="5383" max="5383" width="9.7109375" style="61" customWidth="1"/>
+    <col min="5384" max="5384" width="2" style="61" customWidth="1"/>
+    <col min="5385" max="5633" width="9" style="61"/>
+    <col min="5634" max="5634" width="19.7109375" style="61" customWidth="1"/>
+    <col min="5635" max="5635" width="4" style="61" customWidth="1"/>
+    <col min="5636" max="5637" width="9" style="61"/>
+    <col min="5638" max="5638" width="4" style="61" customWidth="1"/>
+    <col min="5639" max="5639" width="9.7109375" style="61" customWidth="1"/>
+    <col min="5640" max="5640" width="2" style="61" customWidth="1"/>
+    <col min="5641" max="5889" width="9" style="61"/>
+    <col min="5890" max="5890" width="19.7109375" style="61" customWidth="1"/>
+    <col min="5891" max="5891" width="4" style="61" customWidth="1"/>
+    <col min="5892" max="5893" width="9" style="61"/>
+    <col min="5894" max="5894" width="4" style="61" customWidth="1"/>
+    <col min="5895" max="5895" width="9.7109375" style="61" customWidth="1"/>
+    <col min="5896" max="5896" width="2" style="61" customWidth="1"/>
+    <col min="5897" max="6145" width="9" style="61"/>
+    <col min="6146" max="6146" width="19.7109375" style="61" customWidth="1"/>
+    <col min="6147" max="6147" width="4" style="61" customWidth="1"/>
+    <col min="6148" max="6149" width="9" style="61"/>
+    <col min="6150" max="6150" width="4" style="61" customWidth="1"/>
+    <col min="6151" max="6151" width="9.7109375" style="61" customWidth="1"/>
+    <col min="6152" max="6152" width="2" style="61" customWidth="1"/>
+    <col min="6153" max="6401" width="9" style="61"/>
+    <col min="6402" max="6402" width="19.7109375" style="61" customWidth="1"/>
+    <col min="6403" max="6403" width="4" style="61" customWidth="1"/>
+    <col min="6404" max="6405" width="9" style="61"/>
+    <col min="6406" max="6406" width="4" style="61" customWidth="1"/>
+    <col min="6407" max="6407" width="9.7109375" style="61" customWidth="1"/>
+    <col min="6408" max="6408" width="2" style="61" customWidth="1"/>
+    <col min="6409" max="6657" width="9" style="61"/>
+    <col min="6658" max="6658" width="19.7109375" style="61" customWidth="1"/>
+    <col min="6659" max="6659" width="4" style="61" customWidth="1"/>
+    <col min="6660" max="6661" width="9" style="61"/>
+    <col min="6662" max="6662" width="4" style="61" customWidth="1"/>
+    <col min="6663" max="6663" width="9.7109375" style="61" customWidth="1"/>
+    <col min="6664" max="6664" width="2" style="61" customWidth="1"/>
+    <col min="6665" max="6913" width="9" style="61"/>
+    <col min="6914" max="6914" width="19.7109375" style="61" customWidth="1"/>
+    <col min="6915" max="6915" width="4" style="61" customWidth="1"/>
+    <col min="6916" max="6917" width="9" style="61"/>
+    <col min="6918" max="6918" width="4" style="61" customWidth="1"/>
+    <col min="6919" max="6919" width="9.7109375" style="61" customWidth="1"/>
+    <col min="6920" max="6920" width="2" style="61" customWidth="1"/>
+    <col min="6921" max="7169" width="9" style="61"/>
+    <col min="7170" max="7170" width="19.7109375" style="61" customWidth="1"/>
+    <col min="7171" max="7171" width="4" style="61" customWidth="1"/>
+    <col min="7172" max="7173" width="9" style="61"/>
+    <col min="7174" max="7174" width="4" style="61" customWidth="1"/>
+    <col min="7175" max="7175" width="9.7109375" style="61" customWidth="1"/>
+    <col min="7176" max="7176" width="2" style="61" customWidth="1"/>
+    <col min="7177" max="7425" width="9" style="61"/>
+    <col min="7426" max="7426" width="19.7109375" style="61" customWidth="1"/>
+    <col min="7427" max="7427" width="4" style="61" customWidth="1"/>
+    <col min="7428" max="7429" width="9" style="61"/>
+    <col min="7430" max="7430" width="4" style="61" customWidth="1"/>
+    <col min="7431" max="7431" width="9.7109375" style="61" customWidth="1"/>
+    <col min="7432" max="7432" width="2" style="61" customWidth="1"/>
+    <col min="7433" max="7681" width="9" style="61"/>
+    <col min="7682" max="7682" width="19.7109375" style="61" customWidth="1"/>
+    <col min="7683" max="7683" width="4" style="61" customWidth="1"/>
+    <col min="7684" max="7685" width="9" style="61"/>
+    <col min="7686" max="7686" width="4" style="61" customWidth="1"/>
+    <col min="7687" max="7687" width="9.7109375" style="61" customWidth="1"/>
+    <col min="7688" max="7688" width="2" style="61" customWidth="1"/>
+    <col min="7689" max="7937" width="9" style="61"/>
+    <col min="7938" max="7938" width="19.7109375" style="61" customWidth="1"/>
+    <col min="7939" max="7939" width="4" style="61" customWidth="1"/>
+    <col min="7940" max="7941" width="9" style="61"/>
+    <col min="7942" max="7942" width="4" style="61" customWidth="1"/>
+    <col min="7943" max="7943" width="9.7109375" style="61" customWidth="1"/>
+    <col min="7944" max="7944" width="2" style="61" customWidth="1"/>
+    <col min="7945" max="8193" width="9" style="61"/>
+    <col min="8194" max="8194" width="19.7109375" style="61" customWidth="1"/>
+    <col min="8195" max="8195" width="4" style="61" customWidth="1"/>
+    <col min="8196" max="8197" width="9" style="61"/>
+    <col min="8198" max="8198" width="4" style="61" customWidth="1"/>
+    <col min="8199" max="8199" width="9.7109375" style="61" customWidth="1"/>
+    <col min="8200" max="8200" width="2" style="61" customWidth="1"/>
+    <col min="8201" max="8449" width="9" style="61"/>
+    <col min="8450" max="8450" width="19.7109375" style="61" customWidth="1"/>
+    <col min="8451" max="8451" width="4" style="61" customWidth="1"/>
+    <col min="8452" max="8453" width="9" style="61"/>
+    <col min="8454" max="8454" width="4" style="61" customWidth="1"/>
+    <col min="8455" max="8455" width="9.7109375" style="61" customWidth="1"/>
+    <col min="8456" max="8456" width="2" style="61" customWidth="1"/>
+    <col min="8457" max="8705" width="9" style="61"/>
+    <col min="8706" max="8706" width="19.7109375" style="61" customWidth="1"/>
+    <col min="8707" max="8707" width="4" style="61" customWidth="1"/>
+    <col min="8708" max="8709" width="9" style="61"/>
+    <col min="8710" max="8710" width="4" style="61" customWidth="1"/>
+    <col min="8711" max="8711" width="9.7109375" style="61" customWidth="1"/>
+    <col min="8712" max="8712" width="2" style="61" customWidth="1"/>
+    <col min="8713" max="8961" width="9" style="61"/>
+    <col min="8962" max="8962" width="19.7109375" style="61" customWidth="1"/>
+    <col min="8963" max="8963" width="4" style="61" customWidth="1"/>
+    <col min="8964" max="8965" width="9" style="61"/>
+    <col min="8966" max="8966" width="4" style="61" customWidth="1"/>
+    <col min="8967" max="8967" width="9.7109375" style="61" customWidth="1"/>
+    <col min="8968" max="8968" width="2" style="61" customWidth="1"/>
+    <col min="8969" max="9217" width="9" style="61"/>
+    <col min="9218" max="9218" width="19.7109375" style="61" customWidth="1"/>
+    <col min="9219" max="9219" width="4" style="61" customWidth="1"/>
+    <col min="9220" max="9221" width="9" style="61"/>
+    <col min="9222" max="9222" width="4" style="61" customWidth="1"/>
+    <col min="9223" max="9223" width="9.7109375" style="61" customWidth="1"/>
+    <col min="9224" max="9224" width="2" style="61" customWidth="1"/>
+    <col min="9225" max="9473" width="9" style="61"/>
+    <col min="9474" max="9474" width="19.7109375" style="61" customWidth="1"/>
+    <col min="9475" max="9475" width="4" style="61" customWidth="1"/>
+    <col min="9476" max="9477" width="9" style="61"/>
+    <col min="9478" max="9478" width="4" style="61" customWidth="1"/>
+    <col min="9479" max="9479" width="9.7109375" style="61" customWidth="1"/>
+    <col min="9480" max="9480" width="2" style="61" customWidth="1"/>
+    <col min="9481" max="9729" width="9" style="61"/>
+    <col min="9730" max="9730" width="19.7109375" style="61" customWidth="1"/>
+    <col min="9731" max="9731" width="4" style="61" customWidth="1"/>
+    <col min="9732" max="9733" width="9" style="61"/>
+    <col min="9734" max="9734" width="4" style="61" customWidth="1"/>
+    <col min="9735" max="9735" width="9.7109375" style="61" customWidth="1"/>
+    <col min="9736" max="9736" width="2" style="61" customWidth="1"/>
+    <col min="9737" max="9985" width="9" style="61"/>
+    <col min="9986" max="9986" width="19.7109375" style="61" customWidth="1"/>
+    <col min="9987" max="9987" width="4" style="61" customWidth="1"/>
+    <col min="9988" max="9989" width="9" style="61"/>
+    <col min="9990" max="9990" width="4" style="61" customWidth="1"/>
+    <col min="9991" max="9991" width="9.7109375" style="61" customWidth="1"/>
+    <col min="9992" max="9992" width="2" style="61" customWidth="1"/>
+    <col min="9993" max="10241" width="9" style="61"/>
+    <col min="10242" max="10242" width="19.7109375" style="61" customWidth="1"/>
+    <col min="10243" max="10243" width="4" style="61" customWidth="1"/>
+    <col min="10244" max="10245" width="9" style="61"/>
+    <col min="10246" max="10246" width="4" style="61" customWidth="1"/>
+    <col min="10247" max="10247" width="9.7109375" style="61" customWidth="1"/>
+    <col min="10248" max="10248" width="2" style="61" customWidth="1"/>
+    <col min="10249" max="10497" width="9" style="61"/>
+    <col min="10498" max="10498" width="19.7109375" style="61" customWidth="1"/>
+    <col min="10499" max="10499" width="4" style="61" customWidth="1"/>
+    <col min="10500" max="10501" width="9" style="61"/>
+    <col min="10502" max="10502" width="4" style="61" customWidth="1"/>
+    <col min="10503" max="10503" width="9.7109375" style="61" customWidth="1"/>
+    <col min="10504" max="10504" width="2" style="61" customWidth="1"/>
+    <col min="10505" max="10753" width="9" style="61"/>
+    <col min="10754" max="10754" width="19.7109375" style="61" customWidth="1"/>
+    <col min="10755" max="10755" width="4" style="61" customWidth="1"/>
+    <col min="10756" max="10757" width="9" style="61"/>
+    <col min="10758" max="10758" width="4" style="61" customWidth="1"/>
+    <col min="10759" max="10759" width="9.7109375" style="61" customWidth="1"/>
+    <col min="10760" max="10760" width="2" style="61" customWidth="1"/>
+    <col min="10761" max="11009" width="9" style="61"/>
+    <col min="11010" max="11010" width="19.7109375" style="61" customWidth="1"/>
+    <col min="11011" max="11011" width="4" style="61" customWidth="1"/>
+    <col min="11012" max="11013" width="9" style="61"/>
+    <col min="11014" max="11014" width="4" style="61" customWidth="1"/>
+    <col min="11015" max="11015" width="9.7109375" style="61" customWidth="1"/>
+    <col min="11016" max="11016" width="2" style="61" customWidth="1"/>
+    <col min="11017" max="11265" width="9" style="61"/>
+    <col min="11266" max="11266" width="19.7109375" style="61" customWidth="1"/>
+    <col min="11267" max="11267" width="4" style="61" customWidth="1"/>
+    <col min="11268" max="11269" width="9" style="61"/>
+    <col min="11270" max="11270" width="4" style="61" customWidth="1"/>
+    <col min="11271" max="11271" width="9.7109375" style="61" customWidth="1"/>
+    <col min="11272" max="11272" width="2" style="61" customWidth="1"/>
+    <col min="11273" max="11521" width="9" style="61"/>
+    <col min="11522" max="11522" width="19.7109375" style="61" customWidth="1"/>
+    <col min="11523" max="11523" width="4" style="61" customWidth="1"/>
+    <col min="11524" max="11525" width="9" style="61"/>
+    <col min="11526" max="11526" width="4" style="61" customWidth="1"/>
+    <col min="11527" max="11527" width="9.7109375" style="61" customWidth="1"/>
+    <col min="11528" max="11528" width="2" style="61" customWidth="1"/>
+    <col min="11529" max="11777" width="9" style="61"/>
+    <col min="11778" max="11778" width="19.7109375" style="61" customWidth="1"/>
+    <col min="11779" max="11779" width="4" style="61" customWidth="1"/>
+    <col min="11780" max="11781" width="9" style="61"/>
+    <col min="11782" max="11782" width="4" style="61" customWidth="1"/>
+    <col min="11783" max="11783" width="9.7109375" style="61" customWidth="1"/>
+    <col min="11784" max="11784" width="2" style="61" customWidth="1"/>
+    <col min="11785" max="12033" width="9" style="61"/>
+    <col min="12034" max="12034" width="19.7109375" style="61" customWidth="1"/>
+    <col min="12035" max="12035" width="4" style="61" customWidth="1"/>
+    <col min="12036" max="12037" width="9" style="61"/>
+    <col min="12038" max="12038" width="4" style="61" customWidth="1"/>
+    <col min="12039" max="12039" width="9.7109375" style="61" customWidth="1"/>
+    <col min="12040" max="12040" width="2" style="61" customWidth="1"/>
+    <col min="12041" max="12289" width="9" style="61"/>
+    <col min="12290" max="12290" width="19.7109375" style="61" customWidth="1"/>
+    <col min="12291" max="12291" width="4" style="61" customWidth="1"/>
+    <col min="12292" max="12293" width="9" style="61"/>
+    <col min="12294" max="12294" width="4" style="61" customWidth="1"/>
+    <col min="12295" max="12295" width="9.7109375" style="61" customWidth="1"/>
+    <col min="12296" max="12296" width="2" style="61" customWidth="1"/>
+    <col min="12297" max="12545" width="9" style="61"/>
+    <col min="12546" max="12546" width="19.7109375" style="61" customWidth="1"/>
+    <col min="12547" max="12547" width="4" style="61" customWidth="1"/>
+    <col min="12548" max="12549" width="9" style="61"/>
+    <col min="12550" max="12550" width="4" style="61" customWidth="1"/>
+    <col min="12551" max="12551" width="9.7109375" style="61" customWidth="1"/>
+    <col min="12552" max="12552" width="2" style="61" customWidth="1"/>
+    <col min="12553" max="12801" width="9" style="61"/>
+    <col min="12802" max="12802" width="19.7109375" style="61" customWidth="1"/>
+    <col min="12803" max="12803" width="4" style="61" customWidth="1"/>
+    <col min="12804" max="12805" width="9" style="61"/>
+    <col min="12806" max="12806" width="4" style="61" customWidth="1"/>
+    <col min="12807" max="12807" width="9.7109375" style="61" customWidth="1"/>
+    <col min="12808" max="12808" width="2" style="61" customWidth="1"/>
+    <col min="12809" max="13057" width="9" style="61"/>
+    <col min="13058" max="13058" width="19.7109375" style="61" customWidth="1"/>
+    <col min="13059" max="13059" width="4" style="61" customWidth="1"/>
+    <col min="13060" max="13061" width="9" style="61"/>
+    <col min="13062" max="13062" width="4" style="61" customWidth="1"/>
+    <col min="13063" max="13063" width="9.7109375" style="61" customWidth="1"/>
+    <col min="13064" max="13064" width="2" style="61" customWidth="1"/>
+    <col min="13065" max="13313" width="9" style="61"/>
+    <col min="13314" max="13314" width="19.7109375" style="61" customWidth="1"/>
+    <col min="13315" max="13315" width="4" style="61" customWidth="1"/>
+    <col min="13316" max="13317" width="9" style="61"/>
+    <col min="13318" max="13318" width="4" style="61" customWidth="1"/>
+    <col min="13319" max="13319" width="9.7109375" style="61" customWidth="1"/>
+    <col min="13320" max="13320" width="2" style="61" customWidth="1"/>
+    <col min="13321" max="13569" width="9" style="61"/>
+    <col min="13570" max="13570" width="19.7109375" style="61" customWidth="1"/>
+    <col min="13571" max="13571" width="4" style="61" customWidth="1"/>
+    <col min="13572" max="13573" width="9" style="61"/>
+    <col min="13574" max="13574" width="4" style="61" customWidth="1"/>
+    <col min="13575" max="13575" width="9.7109375" style="61" customWidth="1"/>
+    <col min="13576" max="13576" width="2" style="61" customWidth="1"/>
+    <col min="13577" max="13825" width="9" style="61"/>
+    <col min="13826" max="13826" width="19.7109375" style="61" customWidth="1"/>
+    <col min="13827" max="13827" width="4" style="61" customWidth="1"/>
+    <col min="13828" max="13829" width="9" style="61"/>
+    <col min="13830" max="13830" width="4" style="61" customWidth="1"/>
+    <col min="13831" max="13831" width="9.7109375" style="61" customWidth="1"/>
+    <col min="13832" max="13832" width="2" style="61" customWidth="1"/>
+    <col min="13833" max="14081" width="9" style="61"/>
+    <col min="14082" max="14082" width="19.7109375" style="61" customWidth="1"/>
+    <col min="14083" max="14083" width="4" style="61" customWidth="1"/>
+    <col min="14084" max="14085" width="9" style="61"/>
+    <col min="14086" max="14086" width="4" style="61" customWidth="1"/>
+    <col min="14087" max="14087" width="9.7109375" style="61" customWidth="1"/>
+    <col min="14088" max="14088" width="2" style="61" customWidth="1"/>
+    <col min="14089" max="14337" width="9" style="61"/>
+    <col min="14338" max="14338" width="19.7109375" style="61" customWidth="1"/>
+    <col min="14339" max="14339" width="4" style="61" customWidth="1"/>
+    <col min="14340" max="14341" width="9" style="61"/>
+    <col min="14342" max="14342" width="4" style="61" customWidth="1"/>
+    <col min="14343" max="14343" width="9.7109375" style="61" customWidth="1"/>
+    <col min="14344" max="14344" width="2" style="61" customWidth="1"/>
+    <col min="14345" max="14593" width="9" style="61"/>
+    <col min="14594" max="14594" width="19.7109375" style="61" customWidth="1"/>
+    <col min="14595" max="14595" width="4" style="61" customWidth="1"/>
+    <col min="14596" max="14597" width="9" style="61"/>
+    <col min="14598" max="14598" width="4" style="61" customWidth="1"/>
+    <col min="14599" max="14599" width="9.7109375" style="61" customWidth="1"/>
+    <col min="14600" max="14600" width="2" style="61" customWidth="1"/>
+    <col min="14601" max="14849" width="9" style="61"/>
+    <col min="14850" max="14850" width="19.7109375" style="61" customWidth="1"/>
+    <col min="14851" max="14851" width="4" style="61" customWidth="1"/>
+    <col min="14852" max="14853" width="9" style="61"/>
+    <col min="14854" max="14854" width="4" style="61" customWidth="1"/>
+    <col min="14855" max="14855" width="9.7109375" style="61" customWidth="1"/>
+    <col min="14856" max="14856" width="2" style="61" customWidth="1"/>
+    <col min="14857" max="15105" width="9" style="61"/>
+    <col min="15106" max="15106" width="19.7109375" style="61" customWidth="1"/>
+    <col min="15107" max="15107" width="4" style="61" customWidth="1"/>
+    <col min="15108" max="15109" width="9" style="61"/>
+    <col min="15110" max="15110" width="4" style="61" customWidth="1"/>
+    <col min="15111" max="15111" width="9.7109375" style="61" customWidth="1"/>
+    <col min="15112" max="15112" width="2" style="61" customWidth="1"/>
+    <col min="15113" max="15361" width="9" style="61"/>
+    <col min="15362" max="15362" width="19.7109375" style="61" customWidth="1"/>
+    <col min="15363" max="15363" width="4" style="61" customWidth="1"/>
+    <col min="15364" max="15365" width="9" style="61"/>
+    <col min="15366" max="15366" width="4" style="61" customWidth="1"/>
+    <col min="15367" max="15367" width="9.7109375" style="61" customWidth="1"/>
+    <col min="15368" max="15368" width="2" style="61" customWidth="1"/>
+    <col min="15369" max="15617" width="9" style="61"/>
+    <col min="15618" max="15618" width="19.7109375" style="61" customWidth="1"/>
+    <col min="15619" max="15619" width="4" style="61" customWidth="1"/>
+    <col min="15620" max="15621" width="9" style="61"/>
+    <col min="15622" max="15622" width="4" style="61" customWidth="1"/>
+    <col min="15623" max="15623" width="9.7109375" style="61" customWidth="1"/>
+    <col min="15624" max="15624" width="2" style="61" customWidth="1"/>
+    <col min="15625" max="15873" width="9" style="61"/>
+    <col min="15874" max="15874" width="19.7109375" style="61" customWidth="1"/>
+    <col min="15875" max="15875" width="4" style="61" customWidth="1"/>
+    <col min="15876" max="15877" width="9" style="61"/>
+    <col min="15878" max="15878" width="4" style="61" customWidth="1"/>
+    <col min="15879" max="15879" width="9.7109375" style="61" customWidth="1"/>
+    <col min="15880" max="15880" width="2" style="61" customWidth="1"/>
+    <col min="15881" max="16129" width="9" style="61"/>
+    <col min="16130" max="16130" width="19.7109375" style="61" customWidth="1"/>
+    <col min="16131" max="16131" width="4" style="61" customWidth="1"/>
+    <col min="16132" max="16133" width="9" style="61"/>
+    <col min="16134" max="16134" width="4" style="61" customWidth="1"/>
+    <col min="16135" max="16135" width="9.7109375" style="61" customWidth="1"/>
+    <col min="16136" max="16136" width="2" style="61" customWidth="1"/>
+    <col min="16137" max="16384" width="9" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="56" customFormat="1" ht="24" customHeight="1">
-      <c r="A1" s="54"/>
-      <c r="B1" s="119" t="s">
+    <row r="1" spans="1:9" s="55" customFormat="1" ht="24" customHeight="1">
+      <c r="A1" s="53"/>
+      <c r="B1" s="131" t="s">
         <v>277</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="55"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="54"/>
     </row>
-    <row r="2" spans="1:9" s="56" customFormat="1" ht="39" customHeight="1">
-      <c r="A2" s="121" t="s">
+    <row r="2" spans="1:9" s="55" customFormat="1" ht="39" customHeight="1">
+      <c r="A2" s="133" t="s">
         <v>278</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
     </row>
-    <row r="3" spans="1:9" s="56" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+    <row r="3" spans="1:9" s="55" customFormat="1" ht="7.5" customHeight="1">
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
     </row>
-    <row r="4" spans="1:9" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="123" t="s">
+    <row r="4" spans="1:9" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="135" t="s">
         <v>279</v>
       </c>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
     </row>
-    <row r="5" spans="1:9" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="124" t="s">
+    <row r="5" spans="1:9" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="136" t="s">
         <v>280</v>
       </c>
-      <c r="B5" s="124"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="60"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="59"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="62" t="s">
         <v>281</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="62" t="s">
         <v>377</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="125"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="126"/>
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="62" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="62" t="s">
         <v>283</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="125"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="126"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="64" t="s">
         <v>284</v>
       </c>
-      <c r="B9" s="126" t="s">
+      <c r="B9" s="124" t="s">
         <v>376</v>
       </c>
-      <c r="C9" s="126"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
     </row>
     <row r="10" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A10" s="126" t="s">
+      <c r="A10" s="124" t="s">
         <v>283</v>
       </c>
-      <c r="B10" s="126"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
     </row>
     <row r="11" spans="1:9" ht="12" customHeight="1">
-      <c r="A11" s="128" t="s">
+      <c r="A11" s="127" t="s">
         <v>285</v>
       </c>
-      <c r="B11" s="128"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="125"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
     </row>
     <row r="12" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A12" s="130"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="125"/>
+      <c r="A12" s="129"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="126"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="64" t="s">
         <v>286</v>
       </c>
-      <c r="B13" s="126" t="s">
+      <c r="B13" s="124" t="s">
         <v>287</v>
       </c>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="126"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="67"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="69"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="68"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="67"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="69"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="68"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="132" t="s">
+      <c r="A16" s="123" t="s">
         <v>288</v>
       </c>
-      <c r="B16" s="132"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
-      <c r="A17" s="132"/>
-      <c r="B17" s="132"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="132"/>
+      <c r="A17" s="123"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="132"/>
-      <c r="B18" s="132"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
+      <c r="A18" s="123"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
     </row>
-    <row r="20" spans="1:9" s="71" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="70" t="s">
+    <row r="20" spans="1:9" s="70" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="69" t="s">
         <v>290</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
     </row>
-    <row r="21" spans="1:9" s="71" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="132" t="s">
+    <row r="21" spans="1:9" s="70" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="123" t="s">
         <v>291</v>
       </c>
-      <c r="B21" s="132"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
-      <c r="A22" s="132"/>
-      <c r="B22" s="132"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
+      <c r="A22" s="123"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="132"/>
-      <c r="B23" s="132"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="132"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="132"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="132"/>
+      <c r="A23" s="123"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
     </row>
     <row r="24" spans="1:9" ht="17.100000000000001" customHeight="1">
-      <c r="A24" s="132" t="s">
+      <c r="A24" s="123" t="s">
         <v>292</v>
       </c>
-      <c r="B24" s="132"/>
-      <c r="C24" s="132"/>
-      <c r="D24" s="132"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="132"/>
-      <c r="G24" s="132"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="132"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1">
-      <c r="A25" s="132" t="s">
+      <c r="A25" s="123" t="s">
         <v>293</v>
       </c>
-      <c r="B25" s="132"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="132"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1">
-      <c r="A26" s="132"/>
-      <c r="B26" s="132"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="132"/>
+      <c r="A26" s="123"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1">
-      <c r="A27" s="132"/>
-      <c r="B27" s="132"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
+      <c r="A27" s="123"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1">
-      <c r="A28" s="132"/>
-      <c r="B28" s="132"/>
-      <c r="C28" s="132"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="132"/>
+      <c r="A28" s="123"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1">
-      <c r="A29" s="132" t="s">
+      <c r="A29" s="123" t="s">
         <v>294</v>
       </c>
-      <c r="B29" s="132"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="132"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="132"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1">
-      <c r="A30" s="132" t="s">
+      <c r="A30" s="123" t="s">
         <v>295</v>
       </c>
-      <c r="B30" s="132"/>
-      <c r="C30" s="132"/>
-      <c r="D30" s="132"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="132"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="123"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1">
-      <c r="A31" s="70"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
     </row>
     <row r="32" spans="1:9" ht="17.100000000000001" customHeight="1">
-      <c r="A32" s="132"/>
-      <c r="B32" s="132"/>
-      <c r="C32" s="132"/>
-      <c r="D32" s="132"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="132"/>
-      <c r="G32" s="132"/>
-      <c r="H32" s="132"/>
-      <c r="I32" s="132"/>
+      <c r="A32" s="123"/>
+      <c r="B32" s="123"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
     </row>
     <row r="33" spans="1:9" ht="17.100000000000001" customHeight="1">
-      <c r="A33" s="132"/>
-      <c r="B33" s="132"/>
-      <c r="C33" s="132"/>
-      <c r="D33" s="132"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="132"/>
-      <c r="G33" s="132"/>
-      <c r="H33" s="132"/>
-      <c r="I33" s="132"/>
+      <c r="A33" s="123"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="123"/>
     </row>
-    <row r="34" spans="1:9" s="60" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A34" s="72" t="s">
+    <row r="34" spans="1:9" s="59" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A34" s="71" t="s">
         <v>296</v>
       </c>
-      <c r="B34" s="133" t="s">
+      <c r="B34" s="122" t="s">
         <v>297</v>
       </c>
-      <c r="C34" s="133"/>
-      <c r="D34" s="133"/>
-      <c r="E34" s="133"/>
-      <c r="F34" s="133"/>
-      <c r="G34" s="133"/>
-      <c r="H34" s="133"/>
-      <c r="I34" s="133"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="122"/>
+      <c r="I34" s="122"/>
     </row>
-    <row r="35" spans="1:9" s="60" customFormat="1" ht="66" customHeight="1">
-      <c r="A35" s="72"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
+    <row r="35" spans="1:9" s="59" customFormat="1" ht="66" customHeight="1">
+      <c r="A35" s="71"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
     </row>
-    <row r="36" spans="1:9" s="60" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A36" s="56"/>
-      <c r="B36" s="133"/>
-      <c r="C36" s="133"/>
-      <c r="D36" s="133"/>
-      <c r="E36" s="133"/>
-      <c r="F36" s="133"/>
-      <c r="G36" s="133"/>
-      <c r="H36" s="133"/>
-      <c r="I36" s="133"/>
+    <row r="36" spans="1:9" s="59" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A36" s="55"/>
+      <c r="B36" s="122"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="122"/>
+      <c r="E36" s="122"/>
+      <c r="F36" s="122"/>
+      <c r="G36" s="122"/>
+      <c r="H36" s="122"/>
+      <c r="I36" s="122"/>
     </row>
-    <row r="37" spans="1:9" s="60" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A37" s="56"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
+    <row r="37" spans="1:9" s="59" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A37" s="55"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
     </row>
-    <row r="38" spans="1:9" s="60" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A38" s="56"/>
-      <c r="B38" s="133"/>
-      <c r="C38" s="133"/>
-      <c r="D38" s="133"/>
-      <c r="E38" s="133"/>
-      <c r="F38" s="133"/>
-      <c r="G38" s="133"/>
-      <c r="H38" s="133"/>
-      <c r="I38" s="133"/>
+    <row r="38" spans="1:9" s="59" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A38" s="55"/>
+      <c r="B38" s="122"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="122"/>
+      <c r="E38" s="122"/>
+      <c r="F38" s="122"/>
+      <c r="G38" s="122"/>
+      <c r="H38" s="122"/>
+      <c r="I38" s="122"/>
     </row>
-    <row r="39" spans="1:9" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A39" s="56"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="56"/>
+    <row r="39" spans="1:9" s="59" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A39" s="55"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A28:I28"/>
     <mergeCell ref="B13:I13"/>
     <mergeCell ref="A16:I16"/>
@@ -19596,22 +19626,13 @@
     <mergeCell ref="A25:I25"/>
     <mergeCell ref="A26:I26"/>
     <mergeCell ref="A27:I27"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="H9:H12"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="F7:G8"/>
-    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B36:I36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.6" right="0.31" top="0.72" bottom="0.38" header="0.3" footer="0.3"/>
@@ -19628,8 +19649,8 @@
   </sheetPr>
   <dimension ref="A1:L130"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A109" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="30" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="30" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="12.75"/>
@@ -19644,10 +19665,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="72" customHeight="1"/>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="168" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="140"/>
+      <c r="B2" s="169"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1">
@@ -19668,92 +19689,92 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A4" s="164" t="s">
+      <c r="A4" s="189" t="s">
         <v>224</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="188" t="s">
         <v>225</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="118" t="s">
         <v>219</v>
       </c>
-      <c r="D4" s="170"/>
-      <c r="E4" s="172"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="144"/>
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A5" s="164"/>
+      <c r="A5" s="189"/>
       <c r="B5" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="D5" s="171"/>
-      <c r="E5" s="173"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="145"/>
     </row>
     <row r="6" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="192" t="s">
         <v>228</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="D6" s="141" t="s">
+      <c r="D6" s="170" t="s">
         <v>273</v>
       </c>
-      <c r="E6" s="144"/>
+      <c r="E6" s="173"/>
     </row>
     <row r="7" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A7" s="160"/>
-      <c r="B7" s="37" t="s">
+      <c r="A7" s="192"/>
+      <c r="B7" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="D7" s="142"/>
-      <c r="E7" s="145"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="174"/>
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A8" s="160"/>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="192"/>
+      <c r="B8" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="D8" s="142"/>
-      <c r="E8" s="145"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="174"/>
     </row>
     <row r="9" spans="1:5" s="3" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A9" s="161"/>
-      <c r="B9" s="37" t="s">
+      <c r="A9" s="193"/>
+      <c r="B9" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="45" t="s">
         <v>236</v>
       </c>
-      <c r="D9" s="143"/>
-      <c r="E9" s="145"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="174"/>
     </row>
     <row r="10" spans="1:5" s="3" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="194" t="s">
         <v>237</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="D10" s="166"/>
-      <c r="E10" s="145"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="174"/>
     </row>
     <row r="11" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A11" s="159" t="s">
+      <c r="A11" s="195" t="s">
         <v>240</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -19762,44 +19783,44 @@
       <c r="C11" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="D11" s="167"/>
-      <c r="E11" s="145"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="174"/>
     </row>
     <row r="12" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A12" s="160"/>
+      <c r="A12" s="192"/>
       <c r="B12" s="29" t="s">
         <v>243</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="D12" s="167"/>
-      <c r="E12" s="145"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="174"/>
     </row>
     <row r="13" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A13" s="160"/>
+      <c r="A13" s="192"/>
       <c r="B13" s="29" t="s">
         <v>245</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="D13" s="167"/>
-      <c r="E13" s="145"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="174"/>
     </row>
     <row r="14" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A14" s="161"/>
-      <c r="B14" s="29" t="s">
+      <c r="A14" s="193"/>
+      <c r="B14" s="120" t="s">
         <v>247</v>
       </c>
-      <c r="C14" s="191" t="s">
+      <c r="C14" s="190" t="s">
         <v>248</v>
       </c>
-      <c r="D14" s="168"/>
-      <c r="E14" s="146"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="175"/>
     </row>
     <row r="15" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="196" t="s">
         <v>249</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -19808,105 +19829,105 @@
       <c r="C15" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="D15" s="166"/>
-      <c r="E15" s="144"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="173"/>
     </row>
     <row r="16" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A16" s="159" t="s">
+      <c r="A16" s="195" t="s">
         <v>252</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="36" t="s">
         <v>253</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="167"/>
-      <c r="E16" s="145"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="174"/>
     </row>
     <row r="17" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A17" s="160"/>
-      <c r="B17" s="37" t="s">
+      <c r="A17" s="192"/>
+      <c r="B17" s="191" t="s">
         <v>254</v>
       </c>
-      <c r="C17" s="195" t="s">
+      <c r="C17" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="167"/>
-      <c r="E17" s="145"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="174"/>
     </row>
     <row r="18" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A18" s="160"/>
-      <c r="B18" s="37" t="s">
+      <c r="A18" s="192"/>
+      <c r="B18" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="D18" s="167"/>
-      <c r="E18" s="145"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="174"/>
     </row>
     <row r="19" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A19" s="160"/>
-      <c r="B19" s="37" t="s">
+      <c r="A19" s="192"/>
+      <c r="B19" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="C19" s="193" t="s">
+      <c r="C19" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="167"/>
-      <c r="E19" s="145"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="174"/>
     </row>
     <row r="20" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A20" s="160"/>
-      <c r="B20" s="37" t="s">
+      <c r="A20" s="192"/>
+      <c r="B20" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="167"/>
-      <c r="E20" s="145"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="174"/>
     </row>
     <row r="21" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A21" s="161"/>
-      <c r="B21" s="37" t="s">
+      <c r="A21" s="193"/>
+      <c r="B21" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="167"/>
-      <c r="E21" s="145"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="174"/>
     </row>
     <row r="22" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="191" t="s">
         <v>260</v>
       </c>
-      <c r="C22" s="190" t="s">
+      <c r="C22" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="167"/>
-      <c r="E22" s="145"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="174"/>
     </row>
     <row r="23" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="196" t="s">
         <v>261</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="D23" s="167"/>
-      <c r="E23" s="145"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="174"/>
     </row>
     <row r="24" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="194" t="s">
         <v>264</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -19915,40 +19936,40 @@
       <c r="C24" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="D24" s="167"/>
-      <c r="E24" s="145"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="174"/>
     </row>
     <row r="25" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="194" t="s">
         <v>267</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="32" t="s">
         <v>268</v>
       </c>
       <c r="C25" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="D25" s="167"/>
-      <c r="E25" s="145"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="174"/>
     </row>
     <row r="26" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="196" t="s">
         <v>270</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="39" t="s">
         <v>271</v>
       </c>
-      <c r="C26" s="194" t="s">
+      <c r="C26" s="39" t="s">
         <v>272</v>
       </c>
-      <c r="D26" s="168"/>
-      <c r="E26" s="146"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="175"/>
     </row>
     <row r="27" spans="1:5" ht="24.75" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="33" t="s">
         <v>197</v>
       </c>
       <c r="C27" s="30" t="s">
@@ -19962,13 +19983,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A28" s="134" t="s">
+      <c r="A28" s="163" t="s">
         <v>203</v>
       </c>
       <c r="B28" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="32" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="8" t="s">
@@ -19979,7 +20000,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A29" s="134"/>
+      <c r="A29" s="163"/>
       <c r="B29" s="29" t="s">
         <v>14</v>
       </c>
@@ -19994,7 +20015,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A30" s="134"/>
+      <c r="A30" s="163"/>
       <c r="B30" s="31" t="s">
         <v>20</v>
       </c>
@@ -20009,7 +20030,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A31" s="134"/>
+      <c r="A31" s="163"/>
       <c r="B31" s="29" t="s">
         <v>21</v>
       </c>
@@ -20024,11 +20045,11 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A32" s="135"/>
-      <c r="B32" s="35" t="s">
+      <c r="A32" s="164"/>
+      <c r="B32" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="35" t="s">
         <v>25</v>
       </c>
       <c r="D32" s="10" t="s">
@@ -20039,28 +20060,28 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A33" s="48"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="136" t="s">
+      <c r="C33" s="165" t="s">
         <v>275</v>
       </c>
-      <c r="D33" s="136"/>
-      <c r="E33" s="136"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="165"/>
     </row>
     <row r="34" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A34" s="49"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="137" t="s">
+      <c r="A34" s="48"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="166" t="s">
         <v>200</v>
       </c>
-      <c r="D34" s="137"/>
-      <c r="E34" s="137"/>
+      <c r="D34" s="166"/>
+      <c r="E34" s="166"/>
     </row>
     <row r="35" spans="1:5" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A35" s="138" t="s">
+      <c r="A35" s="167" t="s">
         <v>204</v>
       </c>
-      <c r="B35" s="138"/>
+      <c r="B35" s="167"/>
     </row>
     <row r="36" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A36" s="17" t="s">
@@ -20080,45 +20101,45 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A37" s="147" t="s">
+      <c r="A37" s="200" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="196" t="s">
+      <c r="B37" s="197" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="149" t="s">
+      <c r="C37" s="198" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="151" t="s">
+      <c r="D37" s="157" t="s">
         <v>274</v>
       </c>
-      <c r="E37" s="153" t="s">
+      <c r="E37" s="159" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A38" s="148"/>
-      <c r="B38" s="37" t="s">
+      <c r="A38" s="201"/>
+      <c r="B38" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="150"/>
-      <c r="D38" s="152"/>
-      <c r="E38" s="154"/>
+      <c r="C38" s="199"/>
+      <c r="D38" s="158"/>
+      <c r="E38" s="160"/>
     </row>
     <row r="39" spans="1:5" ht="24.75" customHeight="1">
       <c r="A39" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="42" t="s">
         <v>33</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="51" t="s">
+      <c r="E39" s="50" t="s">
         <v>16</v>
       </c>
     </row>
@@ -20126,10 +20147,10 @@
       <c r="A40" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="39" t="s">
+      <c r="C40" s="38" t="s">
         <v>36</v>
       </c>
       <c r="D40" s="8" t="s">
@@ -20143,10 +20164,10 @@
       <c r="A41" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D41" s="8" t="s">
@@ -20160,10 +20181,10 @@
       <c r="A42" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="41" t="s">
+      <c r="C42" s="40" t="s">
         <v>40</v>
       </c>
       <c r="D42" s="6" t="s">
@@ -20177,10 +20198,10 @@
       <c r="A43" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="41" t="s">
+      <c r="C43" s="40" t="s">
         <v>43</v>
       </c>
       <c r="D43" s="6" t="s">
@@ -20194,10 +20215,10 @@
       <c r="A44" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="B44" s="40" t="s">
+      <c r="B44" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="40" t="s">
         <v>45</v>
       </c>
       <c r="D44" s="6" t="s">
@@ -20211,10 +20232,10 @@
       <c r="A45" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="40" t="s">
         <v>47</v>
       </c>
       <c r="D45" s="15" t="s">
@@ -20228,16 +20249,16 @@
       <c r="A46" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="C46" s="41" t="s">
+      <c r="C46" s="40" t="s">
         <v>50</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="52" t="s">
+      <c r="E46" s="51" t="s">
         <v>26</v>
       </c>
     </row>
@@ -20245,27 +20266,27 @@
       <c r="A47" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="40" t="s">
+      <c r="B47" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="C47" s="40" t="s">
         <v>220</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E47" s="52" t="s">
+      <c r="E47" s="51" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A48" s="155" t="s">
+      <c r="A48" s="154" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="157" t="s">
+      <c r="C48" s="161" t="s">
         <v>55</v>
       </c>
       <c r="D48" s="6" t="s">
@@ -20277,10 +20298,10 @@
     </row>
     <row r="49" spans="1:5" ht="24.75" customHeight="1">
       <c r="A49" s="156"/>
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="158"/>
+      <c r="C49" s="162"/>
       <c r="D49" s="6" t="s">
         <v>16</v>
       </c>
@@ -20292,10 +20313,10 @@
       <c r="A50" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="41" t="s">
+      <c r="C50" s="40" t="s">
         <v>59</v>
       </c>
       <c r="D50" s="6" t="s">
@@ -20306,13 +20327,13 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A51" s="163" t="s">
+      <c r="A51" s="153" t="s">
         <v>208</v>
       </c>
-      <c r="B51" s="40" t="s">
+      <c r="B51" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="41" t="s">
+      <c r="C51" s="40" t="s">
         <v>61</v>
       </c>
       <c r="D51" s="6" t="s">
@@ -20323,11 +20344,11 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A52" s="163"/>
-      <c r="B52" s="40" t="s">
+      <c r="A52" s="153"/>
+      <c r="B52" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="41" t="s">
+      <c r="C52" s="40" t="s">
         <v>63</v>
       </c>
       <c r="D52" s="6" t="s">
@@ -20341,10 +20362,10 @@
       <c r="A53" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B53" s="37" t="s">
+      <c r="B53" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="39" t="s">
+      <c r="C53" s="38" t="s">
         <v>221</v>
       </c>
       <c r="D53" s="8" t="s">
@@ -20355,13 +20376,13 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A54" s="164" t="s">
+      <c r="A54" s="138" t="s">
         <v>210</v>
       </c>
-      <c r="B54" s="37" t="s">
+      <c r="B54" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="39" t="s">
+      <c r="C54" s="38" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="8" t="s">
@@ -20372,11 +20393,11 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A55" s="164"/>
-      <c r="B55" s="37" t="s">
+      <c r="A55" s="138"/>
+      <c r="B55" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="39" t="s">
+      <c r="C55" s="38" t="s">
         <v>222</v>
       </c>
       <c r="D55" s="8" t="s">
@@ -20390,10 +20411,10 @@
       <c r="A56" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B56" s="42" t="s">
+      <c r="B56" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="41" t="s">
+      <c r="C56" s="40" t="s">
         <v>69</v>
       </c>
       <c r="D56" s="8" t="s">
@@ -20404,13 +20425,13 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A57" s="155" t="s">
+      <c r="A57" s="154" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="40" t="s">
+      <c r="B57" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="41" t="s">
+      <c r="C57" s="40" t="s">
         <v>72</v>
       </c>
       <c r="D57" s="6" t="s">
@@ -20421,11 +20442,11 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A58" s="165"/>
-      <c r="B58" s="40" t="s">
+      <c r="A58" s="155"/>
+      <c r="B58" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C58" s="41" t="s">
+      <c r="C58" s="40" t="s">
         <v>74</v>
       </c>
       <c r="D58" s="6" t="s">
@@ -20436,11 +20457,11 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A59" s="165"/>
-      <c r="B59" s="40" t="s">
+      <c r="A59" s="155"/>
+      <c r="B59" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="41" t="s">
+      <c r="C59" s="40" t="s">
         <v>76</v>
       </c>
       <c r="D59" s="6" t="s">
@@ -20451,11 +20472,11 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A60" s="165"/>
-      <c r="B60" s="40" t="s">
+      <c r="A60" s="155"/>
+      <c r="B60" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C60" s="41" t="s">
+      <c r="C60" s="40" t="s">
         <v>78</v>
       </c>
       <c r="D60" s="6" t="s">
@@ -20467,16 +20488,16 @@
     </row>
     <row r="61" spans="1:5" ht="24.75" customHeight="1">
       <c r="A61" s="156"/>
-      <c r="B61" s="40" t="s">
+      <c r="B61" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="C61" s="41" t="s">
+      <c r="C61" s="40" t="s">
         <v>80</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E61" s="52" t="s">
+      <c r="E61" s="51" t="s">
         <v>26</v>
       </c>
     </row>
@@ -20484,10 +20505,10 @@
       <c r="A62" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="B62" s="37" t="s">
+      <c r="B62" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="C62" s="39" t="s">
+      <c r="C62" s="38" t="s">
         <v>82</v>
       </c>
       <c r="D62" s="8" t="s">
@@ -20498,13 +20519,13 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A63" s="159" t="s">
+      <c r="A63" s="141" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="37" t="s">
+      <c r="B63" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="39" t="s">
+      <c r="C63" s="38" t="s">
         <v>85</v>
       </c>
       <c r="D63" s="8" t="s">
@@ -20515,11 +20536,11 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A64" s="160"/>
-      <c r="B64" s="37" t="s">
+      <c r="A64" s="139"/>
+      <c r="B64" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="C64" s="39" t="s">
+      <c r="C64" s="38" t="s">
         <v>87</v>
       </c>
       <c r="D64" s="8" t="s">
@@ -20530,11 +20551,11 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A65" s="160"/>
-      <c r="B65" s="37" t="s">
+      <c r="A65" s="139"/>
+      <c r="B65" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="C65" s="39" t="s">
+      <c r="C65" s="38" t="s">
         <v>87</v>
       </c>
       <c r="D65" s="8" t="s">
@@ -20545,11 +20566,11 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A66" s="161"/>
-      <c r="B66" s="37" t="s">
+      <c r="A66" s="140"/>
+      <c r="B66" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="C66" s="39" t="s">
+      <c r="C66" s="38" t="s">
         <v>90</v>
       </c>
       <c r="D66" s="8" t="s">
@@ -20560,13 +20581,13 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A67" s="159" t="s">
+      <c r="A67" s="141" t="s">
         <v>213</v>
       </c>
-      <c r="B67" s="37" t="s">
+      <c r="B67" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C67" s="39" t="s">
+      <c r="C67" s="38" t="s">
         <v>92</v>
       </c>
       <c r="D67" s="8" t="s">
@@ -20577,11 +20598,11 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A68" s="160"/>
-      <c r="B68" s="37" t="s">
+      <c r="A68" s="139"/>
+      <c r="B68" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C68" s="39" t="s">
+      <c r="C68" s="38" t="s">
         <v>94</v>
       </c>
       <c r="D68" s="8" t="s">
@@ -20592,11 +20613,11 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A69" s="160"/>
-      <c r="B69" s="37" t="s">
+      <c r="A69" s="139"/>
+      <c r="B69" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="C69" s="39" t="s">
+      <c r="C69" s="38" t="s">
         <v>96</v>
       </c>
       <c r="D69" s="8" t="s">
@@ -20607,11 +20628,11 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A70" s="160"/>
-      <c r="B70" s="37" t="s">
+      <c r="A70" s="139"/>
+      <c r="B70" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C70" s="39" t="s">
+      <c r="C70" s="38" t="s">
         <v>98</v>
       </c>
       <c r="D70" s="8" t="s">
@@ -20622,43 +20643,43 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A71" s="162"/>
-      <c r="B71" s="44" t="s">
+      <c r="A71" s="149"/>
+      <c r="B71" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="C71" s="45" t="s">
+      <c r="C71" s="44" t="s">
         <v>100</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E71" s="53" t="s">
+      <c r="E71" s="52" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A72" s="160" t="s">
+      <c r="A72" s="139" t="s">
         <v>213</v>
       </c>
-      <c r="B72" s="38" t="s">
+      <c r="B72" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C72" s="43" t="s">
+      <c r="C72" s="42" t="s">
         <v>102</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E72" s="51" t="s">
+      <c r="E72" s="50" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A73" s="160"/>
-      <c r="B73" s="37" t="s">
+      <c r="A73" s="139"/>
+      <c r="B73" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="C73" s="39" t="s">
+      <c r="C73" s="38" t="s">
         <v>104</v>
       </c>
       <c r="D73" s="8" t="s">
@@ -20669,11 +20690,11 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A74" s="160"/>
-      <c r="B74" s="37" t="s">
+      <c r="A74" s="139"/>
+      <c r="B74" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="C74" s="39" t="s">
+      <c r="C74" s="38" t="s">
         <v>106</v>
       </c>
       <c r="D74" s="8" t="s">
@@ -20684,11 +20705,11 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A75" s="160"/>
-      <c r="B75" s="37" t="s">
+      <c r="A75" s="139"/>
+      <c r="B75" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="C75" s="39" t="s">
+      <c r="C75" s="38" t="s">
         <v>108</v>
       </c>
       <c r="D75" s="8" t="s">
@@ -20699,11 +20720,11 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A76" s="160"/>
-      <c r="B76" s="37" t="s">
+      <c r="A76" s="139"/>
+      <c r="B76" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C76" s="39" t="s">
+      <c r="C76" s="38" t="s">
         <v>110</v>
       </c>
       <c r="D76" s="8" t="s">
@@ -20714,11 +20735,11 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A77" s="161"/>
-      <c r="B77" s="37" t="s">
+      <c r="A77" s="140"/>
+      <c r="B77" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="38" t="s">
         <v>112</v>
       </c>
       <c r="D77" s="8" t="s">
@@ -20729,13 +20750,13 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A78" s="159" t="s">
+      <c r="A78" s="141" t="s">
         <v>113</v>
       </c>
-      <c r="B78" s="37" t="s">
+      <c r="B78" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="C78" s="39" t="s">
+      <c r="C78" s="38" t="s">
         <v>115</v>
       </c>
       <c r="D78" s="8" t="s">
@@ -20746,11 +20767,11 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A79" s="160"/>
-      <c r="B79" s="37" t="s">
+      <c r="A79" s="139"/>
+      <c r="B79" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="C79" s="39" t="s">
+      <c r="C79" s="38" t="s">
         <v>117</v>
       </c>
       <c r="D79" s="8" t="s">
@@ -20761,11 +20782,11 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A80" s="160"/>
-      <c r="B80" s="37" t="s">
+      <c r="A80" s="139"/>
+      <c r="B80" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="C80" s="39" t="s">
+      <c r="C80" s="38" t="s">
         <v>119</v>
       </c>
       <c r="D80" s="8" t="s">
@@ -20776,11 +20797,11 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A81" s="161"/>
-      <c r="B81" s="37" t="s">
+      <c r="A81" s="140"/>
+      <c r="B81" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="C81" s="39" t="s">
+      <c r="C81" s="38" t="s">
         <v>119</v>
       </c>
       <c r="D81" s="8" t="s">
@@ -20794,10 +20815,10 @@
       <c r="A82" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B82" s="37" t="s">
+      <c r="B82" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C82" s="39" t="s">
+      <c r="C82" s="38" t="s">
         <v>123</v>
       </c>
       <c r="D82" s="8" t="s">
@@ -20811,10 +20832,10 @@
       <c r="A83" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B83" s="37" t="s">
+      <c r="B83" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="39" t="s">
+      <c r="C83" s="38" t="s">
         <v>126</v>
       </c>
       <c r="D83" s="8" t="s">
@@ -20828,10 +20849,10 @@
       <c r="A84" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="B84" s="37" t="s">
+      <c r="B84" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="C84" s="39" t="s">
+      <c r="C84" s="38" t="s">
         <v>129</v>
       </c>
       <c r="D84" s="8" t="s">
@@ -20842,13 +20863,13 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A85" s="159" t="s">
+      <c r="A85" s="141" t="s">
         <v>130</v>
       </c>
-      <c r="B85" s="37" t="s">
+      <c r="B85" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="C85" s="174" t="s">
+      <c r="C85" s="150" t="s">
         <v>223</v>
       </c>
       <c r="D85" s="8" t="s">
@@ -20859,11 +20880,11 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A86" s="160"/>
-      <c r="B86" s="37" t="s">
+      <c r="A86" s="139"/>
+      <c r="B86" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="C86" s="175"/>
+      <c r="C86" s="151"/>
       <c r="D86" s="8" t="s">
         <v>16</v>
       </c>
@@ -20872,11 +20893,11 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A87" s="161"/>
-      <c r="B87" s="37" t="s">
+      <c r="A87" s="140"/>
+      <c r="B87" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="C87" s="176"/>
+      <c r="C87" s="152"/>
       <c r="D87" s="8" t="s">
         <v>16</v>
       </c>
@@ -20885,13 +20906,13 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A88" s="159" t="s">
+      <c r="A88" s="141" t="s">
         <v>134</v>
       </c>
-      <c r="B88" s="37" t="s">
+      <c r="B88" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="C88" s="174" t="s">
+      <c r="C88" s="150" t="s">
         <v>136</v>
       </c>
       <c r="D88" s="8" t="s">
@@ -20902,11 +20923,11 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A89" s="161"/>
-      <c r="B89" s="37" t="s">
+      <c r="A89" s="140"/>
+      <c r="B89" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="C89" s="176"/>
+      <c r="C89" s="152"/>
       <c r="D89" s="8" t="s">
         <v>16</v>
       </c>
@@ -20915,13 +20936,13 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A90" s="159" t="s">
+      <c r="A90" s="141" t="s">
         <v>214</v>
       </c>
-      <c r="B90" s="37" t="s">
+      <c r="B90" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="C90" s="39" t="s">
+      <c r="C90" s="38" t="s">
         <v>139</v>
       </c>
       <c r="D90" s="8" t="s">
@@ -20932,11 +20953,11 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A91" s="160"/>
-      <c r="B91" s="37" t="s">
+      <c r="A91" s="139"/>
+      <c r="B91" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="C91" s="39" t="s">
+      <c r="C91" s="38" t="s">
         <v>141</v>
       </c>
       <c r="D91" s="8" t="s">
@@ -20947,11 +20968,11 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A92" s="160"/>
-      <c r="B92" s="37" t="s">
+      <c r="A92" s="139"/>
+      <c r="B92" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="C92" s="39" t="s">
+      <c r="C92" s="38" t="s">
         <v>143</v>
       </c>
       <c r="D92" s="8" t="s">
@@ -20962,11 +20983,11 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A93" s="160"/>
-      <c r="B93" s="37" t="s">
+      <c r="A93" s="139"/>
+      <c r="B93" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="C93" s="39" t="s">
+      <c r="C93" s="38" t="s">
         <v>145</v>
       </c>
       <c r="D93" s="8" t="s">
@@ -20977,11 +20998,11 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A94" s="160"/>
-      <c r="B94" s="37" t="s">
+      <c r="A94" s="139"/>
+      <c r="B94" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="C94" s="39" t="s">
+      <c r="C94" s="38" t="s">
         <v>147</v>
       </c>
       <c r="D94" s="8" t="s">
@@ -20992,11 +21013,11 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A95" s="160"/>
-      <c r="B95" s="37" t="s">
+      <c r="A95" s="139"/>
+      <c r="B95" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="C95" s="39" t="s">
+      <c r="C95" s="38" t="s">
         <v>149</v>
       </c>
       <c r="D95" s="8" t="s">
@@ -21007,11 +21028,11 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A96" s="160"/>
-      <c r="B96" s="37" t="s">
+      <c r="A96" s="139"/>
+      <c r="B96" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="C96" s="39" t="s">
+      <c r="C96" s="38" t="s">
         <v>149</v>
       </c>
       <c r="D96" s="8" t="s">
@@ -21022,11 +21043,11 @@
       </c>
     </row>
     <row r="97" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A97" s="160"/>
-      <c r="B97" s="37" t="s">
+      <c r="A97" s="139"/>
+      <c r="B97" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="C97" s="39" t="s">
+      <c r="C97" s="38" t="s">
         <v>149</v>
       </c>
       <c r="D97" s="8" t="s">
@@ -21037,11 +21058,11 @@
       </c>
     </row>
     <row r="98" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A98" s="160"/>
-      <c r="B98" s="37" t="s">
+      <c r="A98" s="139"/>
+      <c r="B98" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="C98" s="39" t="s">
+      <c r="C98" s="38" t="s">
         <v>153</v>
       </c>
       <c r="D98" s="8" t="s">
@@ -21052,11 +21073,11 @@
       </c>
     </row>
     <row r="99" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A99" s="160"/>
-      <c r="B99" s="37" t="s">
+      <c r="A99" s="139"/>
+      <c r="B99" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="C99" s="39" t="s">
+      <c r="C99" s="38" t="s">
         <v>155</v>
       </c>
       <c r="D99" s="8" t="s">
@@ -21067,11 +21088,11 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A100" s="160"/>
-      <c r="B100" s="37" t="s">
+      <c r="A100" s="139"/>
+      <c r="B100" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="C100" s="39" t="s">
+      <c r="C100" s="38" t="s">
         <v>157</v>
       </c>
       <c r="D100" s="8" t="s">
@@ -21082,11 +21103,11 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A101" s="161"/>
-      <c r="B101" s="37" t="s">
+      <c r="A101" s="140"/>
+      <c r="B101" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="C101" s="39" t="s">
+      <c r="C101" s="38" t="s">
         <v>159</v>
       </c>
       <c r="D101" s="8" t="s">
@@ -21097,28 +21118,28 @@
       </c>
     </row>
     <row r="102" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A102" s="160" t="s">
+      <c r="A102" s="139" t="s">
         <v>216</v>
       </c>
-      <c r="B102" s="38" t="s">
+      <c r="B102" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="C102" s="43" t="s">
+      <c r="C102" s="42" t="s">
         <v>163</v>
       </c>
       <c r="D102" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E102" s="51" t="s">
+      <c r="E102" s="50" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A103" s="160"/>
-      <c r="B103" s="37" t="s">
+      <c r="A103" s="139"/>
+      <c r="B103" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="C103" s="39" t="s">
+      <c r="C103" s="38" t="s">
         <v>163</v>
       </c>
       <c r="D103" s="8" t="s">
@@ -21129,11 +21150,11 @@
       </c>
     </row>
     <row r="104" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A104" s="160"/>
-      <c r="B104" s="37" t="s">
+      <c r="A104" s="139"/>
+      <c r="B104" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="C104" s="39" t="s">
+      <c r="C104" s="38" t="s">
         <v>166</v>
       </c>
       <c r="D104" s="8" t="s">
@@ -21144,11 +21165,11 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A105" s="160"/>
-      <c r="B105" s="37" t="s">
+      <c r="A105" s="139"/>
+      <c r="B105" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="C105" s="39" t="s">
+      <c r="C105" s="38" t="s">
         <v>168</v>
       </c>
       <c r="D105" s="8" t="s">
@@ -21159,11 +21180,11 @@
       </c>
     </row>
     <row r="106" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A106" s="160"/>
-      <c r="B106" s="37" t="s">
+      <c r="A106" s="139"/>
+      <c r="B106" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="C106" s="39" t="s">
+      <c r="C106" s="38" t="s">
         <v>170</v>
       </c>
       <c r="D106" s="8" t="s">
@@ -21174,17 +21195,17 @@
       </c>
     </row>
     <row r="107" spans="1:5" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A107" s="162"/>
-      <c r="B107" s="44" t="s">
+      <c r="A107" s="149"/>
+      <c r="B107" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="C107" s="45" t="s">
+      <c r="C107" s="44" t="s">
         <v>172</v>
       </c>
       <c r="D107" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E107" s="53" t="s">
+      <c r="E107" s="52" t="s">
         <v>16</v>
       </c>
     </row>
@@ -21192,27 +21213,27 @@
       <c r="A108" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="B108" s="38" t="s">
+      <c r="B108" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="C108" s="43" t="s">
+      <c r="C108" s="42" t="s">
         <v>161</v>
       </c>
       <c r="D108" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E108" s="51" t="s">
+      <c r="E108" s="50" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A109" s="159" t="s">
+      <c r="A109" s="141" t="s">
         <v>217</v>
       </c>
-      <c r="B109" s="37" t="s">
+      <c r="B109" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="C109" s="39" t="s">
+      <c r="C109" s="38" t="s">
         <v>174</v>
       </c>
       <c r="D109" s="8" t="s">
@@ -21223,11 +21244,11 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A110" s="160"/>
-      <c r="B110" s="37" t="s">
+      <c r="A110" s="139"/>
+      <c r="B110" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="C110" s="39" t="s">
+      <c r="C110" s="38" t="s">
         <v>174</v>
       </c>
       <c r="D110" s="8" t="s">
@@ -21238,11 +21259,11 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A111" s="161"/>
-      <c r="B111" s="37" t="s">
+      <c r="A111" s="140"/>
+      <c r="B111" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="C111" s="39" t="s">
+      <c r="C111" s="38" t="s">
         <v>174</v>
       </c>
       <c r="D111" s="8" t="s">
@@ -21253,13 +21274,13 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A112" s="159" t="s">
+      <c r="A112" s="141" t="s">
         <v>218</v>
       </c>
-      <c r="B112" s="37" t="s">
+      <c r="B112" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="C112" s="39" t="s">
+      <c r="C112" s="38" t="s">
         <v>178</v>
       </c>
       <c r="D112" s="8" t="s">
@@ -21270,11 +21291,11 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A113" s="160"/>
-      <c r="B113" s="37" t="s">
+      <c r="A113" s="139"/>
+      <c r="B113" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="C113" s="39" t="s">
+      <c r="C113" s="38" t="s">
         <v>180</v>
       </c>
       <c r="D113" s="8" t="s">
@@ -21285,11 +21306,11 @@
       </c>
     </row>
     <row r="114" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A114" s="160"/>
-      <c r="B114" s="37" t="s">
+      <c r="A114" s="139"/>
+      <c r="B114" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="C114" s="39" t="s">
+      <c r="C114" s="38" t="s">
         <v>182</v>
       </c>
       <c r="D114" s="8" t="s">
@@ -21300,11 +21321,11 @@
       </c>
     </row>
     <row r="115" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A115" s="160"/>
-      <c r="B115" s="37" t="s">
+      <c r="A115" s="139"/>
+      <c r="B115" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="C115" s="39" t="s">
+      <c r="C115" s="38" t="s">
         <v>183</v>
       </c>
       <c r="D115" s="8" t="s">
@@ -21315,11 +21336,11 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A116" s="160"/>
-      <c r="B116" s="37" t="s">
+      <c r="A116" s="139"/>
+      <c r="B116" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="C116" s="39" t="s">
+      <c r="C116" s="38" t="s">
         <v>185</v>
       </c>
       <c r="D116" s="8" t="s">
@@ -21330,11 +21351,11 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A117" s="160"/>
-      <c r="B117" s="37" t="s">
+      <c r="A117" s="139"/>
+      <c r="B117" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="C117" s="39" t="s">
+      <c r="C117" s="38" t="s">
         <v>187</v>
       </c>
       <c r="D117" s="8" t="s">
@@ -21345,11 +21366,11 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A118" s="160"/>
-      <c r="B118" s="37" t="s">
+      <c r="A118" s="139"/>
+      <c r="B118" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="C118" s="39" t="s">
+      <c r="C118" s="38" t="s">
         <v>189</v>
       </c>
       <c r="D118" s="8" t="s">
@@ -21360,11 +21381,11 @@
       </c>
     </row>
     <row r="119" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A119" s="160"/>
-      <c r="B119" s="37" t="s">
+      <c r="A119" s="139"/>
+      <c r="B119" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="C119" s="39" t="s">
+      <c r="C119" s="38" t="s">
         <v>191</v>
       </c>
       <c r="D119" s="8" t="s">
@@ -21375,11 +21396,11 @@
       </c>
     </row>
     <row r="120" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A120" s="160"/>
-      <c r="B120" s="37" t="s">
+      <c r="A120" s="139"/>
+      <c r="B120" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="C120" s="39" t="s">
+      <c r="C120" s="38" t="s">
         <v>193</v>
       </c>
       <c r="D120" s="8" t="s">
@@ -21390,17 +21411,17 @@
       </c>
     </row>
     <row r="121" spans="1:5" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A121" s="162"/>
-      <c r="B121" s="44" t="s">
+      <c r="A121" s="149"/>
+      <c r="B121" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="C121" s="45" t="s">
+      <c r="C121" s="44" t="s">
         <v>195</v>
       </c>
       <c r="D121" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E121" s="53" t="s">
+      <c r="E121" s="52" t="s">
         <v>16</v>
       </c>
     </row>
@@ -21429,21 +21450,43 @@
       <c r="A129" s="26"/>
     </row>
     <row r="130" spans="1:12" s="13" customFormat="1" ht="48" customHeight="1">
-      <c r="A130" s="169"/>
-      <c r="B130" s="169"/>
-      <c r="C130" s="169"/>
-      <c r="D130" s="169"/>
-      <c r="E130" s="169"/>
-      <c r="F130" s="169"/>
-      <c r="G130" s="169"/>
-      <c r="H130" s="169"/>
-      <c r="I130" s="169"/>
-      <c r="J130" s="169"/>
-      <c r="K130" s="169"/>
-      <c r="L130" s="169"/>
+      <c r="A130" s="137"/>
+      <c r="B130" s="137"/>
+      <c r="C130" s="137"/>
+      <c r="D130" s="137"/>
+      <c r="E130" s="137"/>
+      <c r="F130" s="137"/>
+      <c r="G130" s="137"/>
+      <c r="H130" s="137"/>
+      <c r="I130" s="137"/>
+      <c r="J130" s="137"/>
+      <c r="K130" s="137"/>
+      <c r="L130" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E14"/>
+    <mergeCell ref="D15:D26"/>
+    <mergeCell ref="E15:E26"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A72:A77"/>
     <mergeCell ref="A130:L130"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A9"/>
@@ -21460,28 +21503,6 @@
     <mergeCell ref="C88:C89"/>
     <mergeCell ref="A90:A101"/>
     <mergeCell ref="A102:A107"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A72:A77"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E14"/>
-    <mergeCell ref="D15:D26"/>
-    <mergeCell ref="E15:E26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -21513,1015 +21534,1015 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="74" customWidth="1"/>
-    <col min="2" max="2" width="38" style="74" customWidth="1"/>
-    <col min="3" max="4" width="13.42578125" style="74" customWidth="1"/>
-    <col min="5" max="5" width="51.5703125" style="74" customWidth="1"/>
-    <col min="6" max="7" width="13.28515625" style="74" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="74" bestFit="1" customWidth="1"/>
-    <col min="9" max="258" width="9" style="74"/>
-    <col min="259" max="259" width="10.28515625" style="74" customWidth="1"/>
-    <col min="260" max="260" width="39.7109375" style="74" customWidth="1"/>
-    <col min="261" max="261" width="47.42578125" style="74" customWidth="1"/>
-    <col min="262" max="263" width="13.28515625" style="74" customWidth="1"/>
-    <col min="264" max="514" width="9" style="74"/>
-    <col min="515" max="515" width="10.28515625" style="74" customWidth="1"/>
-    <col min="516" max="516" width="39.7109375" style="74" customWidth="1"/>
-    <col min="517" max="517" width="47.42578125" style="74" customWidth="1"/>
-    <col min="518" max="519" width="13.28515625" style="74" customWidth="1"/>
-    <col min="520" max="770" width="9" style="74"/>
-    <col min="771" max="771" width="10.28515625" style="74" customWidth="1"/>
-    <col min="772" max="772" width="39.7109375" style="74" customWidth="1"/>
-    <col min="773" max="773" width="47.42578125" style="74" customWidth="1"/>
-    <col min="774" max="775" width="13.28515625" style="74" customWidth="1"/>
-    <col min="776" max="1026" width="9" style="74"/>
-    <col min="1027" max="1027" width="10.28515625" style="74" customWidth="1"/>
-    <col min="1028" max="1028" width="39.7109375" style="74" customWidth="1"/>
-    <col min="1029" max="1029" width="47.42578125" style="74" customWidth="1"/>
-    <col min="1030" max="1031" width="13.28515625" style="74" customWidth="1"/>
-    <col min="1032" max="1282" width="9" style="74"/>
-    <col min="1283" max="1283" width="10.28515625" style="74" customWidth="1"/>
-    <col min="1284" max="1284" width="39.7109375" style="74" customWidth="1"/>
-    <col min="1285" max="1285" width="47.42578125" style="74" customWidth="1"/>
-    <col min="1286" max="1287" width="13.28515625" style="74" customWidth="1"/>
-    <col min="1288" max="1538" width="9" style="74"/>
-    <col min="1539" max="1539" width="10.28515625" style="74" customWidth="1"/>
-    <col min="1540" max="1540" width="39.7109375" style="74" customWidth="1"/>
-    <col min="1541" max="1541" width="47.42578125" style="74" customWidth="1"/>
-    <col min="1542" max="1543" width="13.28515625" style="74" customWidth="1"/>
-    <col min="1544" max="1794" width="9" style="74"/>
-    <col min="1795" max="1795" width="10.28515625" style="74" customWidth="1"/>
-    <col min="1796" max="1796" width="39.7109375" style="74" customWidth="1"/>
-    <col min="1797" max="1797" width="47.42578125" style="74" customWidth="1"/>
-    <col min="1798" max="1799" width="13.28515625" style="74" customWidth="1"/>
-    <col min="1800" max="2050" width="9" style="74"/>
-    <col min="2051" max="2051" width="10.28515625" style="74" customWidth="1"/>
-    <col min="2052" max="2052" width="39.7109375" style="74" customWidth="1"/>
-    <col min="2053" max="2053" width="47.42578125" style="74" customWidth="1"/>
-    <col min="2054" max="2055" width="13.28515625" style="74" customWidth="1"/>
-    <col min="2056" max="2306" width="9" style="74"/>
-    <col min="2307" max="2307" width="10.28515625" style="74" customWidth="1"/>
-    <col min="2308" max="2308" width="39.7109375" style="74" customWidth="1"/>
-    <col min="2309" max="2309" width="47.42578125" style="74" customWidth="1"/>
-    <col min="2310" max="2311" width="13.28515625" style="74" customWidth="1"/>
-    <col min="2312" max="2562" width="9" style="74"/>
-    <col min="2563" max="2563" width="10.28515625" style="74" customWidth="1"/>
-    <col min="2564" max="2564" width="39.7109375" style="74" customWidth="1"/>
-    <col min="2565" max="2565" width="47.42578125" style="74" customWidth="1"/>
-    <col min="2566" max="2567" width="13.28515625" style="74" customWidth="1"/>
-    <col min="2568" max="2818" width="9" style="74"/>
-    <col min="2819" max="2819" width="10.28515625" style="74" customWidth="1"/>
-    <col min="2820" max="2820" width="39.7109375" style="74" customWidth="1"/>
-    <col min="2821" max="2821" width="47.42578125" style="74" customWidth="1"/>
-    <col min="2822" max="2823" width="13.28515625" style="74" customWidth="1"/>
-    <col min="2824" max="3074" width="9" style="74"/>
-    <col min="3075" max="3075" width="10.28515625" style="74" customWidth="1"/>
-    <col min="3076" max="3076" width="39.7109375" style="74" customWidth="1"/>
-    <col min="3077" max="3077" width="47.42578125" style="74" customWidth="1"/>
-    <col min="3078" max="3079" width="13.28515625" style="74" customWidth="1"/>
-    <col min="3080" max="3330" width="9" style="74"/>
-    <col min="3331" max="3331" width="10.28515625" style="74" customWidth="1"/>
-    <col min="3332" max="3332" width="39.7109375" style="74" customWidth="1"/>
-    <col min="3333" max="3333" width="47.42578125" style="74" customWidth="1"/>
-    <col min="3334" max="3335" width="13.28515625" style="74" customWidth="1"/>
-    <col min="3336" max="3586" width="9" style="74"/>
-    <col min="3587" max="3587" width="10.28515625" style="74" customWidth="1"/>
-    <col min="3588" max="3588" width="39.7109375" style="74" customWidth="1"/>
-    <col min="3589" max="3589" width="47.42578125" style="74" customWidth="1"/>
-    <col min="3590" max="3591" width="13.28515625" style="74" customWidth="1"/>
-    <col min="3592" max="3842" width="9" style="74"/>
-    <col min="3843" max="3843" width="10.28515625" style="74" customWidth="1"/>
-    <col min="3844" max="3844" width="39.7109375" style="74" customWidth="1"/>
-    <col min="3845" max="3845" width="47.42578125" style="74" customWidth="1"/>
-    <col min="3846" max="3847" width="13.28515625" style="74" customWidth="1"/>
-    <col min="3848" max="4098" width="9" style="74"/>
-    <col min="4099" max="4099" width="10.28515625" style="74" customWidth="1"/>
-    <col min="4100" max="4100" width="39.7109375" style="74" customWidth="1"/>
-    <col min="4101" max="4101" width="47.42578125" style="74" customWidth="1"/>
-    <col min="4102" max="4103" width="13.28515625" style="74" customWidth="1"/>
-    <col min="4104" max="4354" width="9" style="74"/>
-    <col min="4355" max="4355" width="10.28515625" style="74" customWidth="1"/>
-    <col min="4356" max="4356" width="39.7109375" style="74" customWidth="1"/>
-    <col min="4357" max="4357" width="47.42578125" style="74" customWidth="1"/>
-    <col min="4358" max="4359" width="13.28515625" style="74" customWidth="1"/>
-    <col min="4360" max="4610" width="9" style="74"/>
-    <col min="4611" max="4611" width="10.28515625" style="74" customWidth="1"/>
-    <col min="4612" max="4612" width="39.7109375" style="74" customWidth="1"/>
-    <col min="4613" max="4613" width="47.42578125" style="74" customWidth="1"/>
-    <col min="4614" max="4615" width="13.28515625" style="74" customWidth="1"/>
-    <col min="4616" max="4866" width="9" style="74"/>
-    <col min="4867" max="4867" width="10.28515625" style="74" customWidth="1"/>
-    <col min="4868" max="4868" width="39.7109375" style="74" customWidth="1"/>
-    <col min="4869" max="4869" width="47.42578125" style="74" customWidth="1"/>
-    <col min="4870" max="4871" width="13.28515625" style="74" customWidth="1"/>
-    <col min="4872" max="5122" width="9" style="74"/>
-    <col min="5123" max="5123" width="10.28515625" style="74" customWidth="1"/>
-    <col min="5124" max="5124" width="39.7109375" style="74" customWidth="1"/>
-    <col min="5125" max="5125" width="47.42578125" style="74" customWidth="1"/>
-    <col min="5126" max="5127" width="13.28515625" style="74" customWidth="1"/>
-    <col min="5128" max="5378" width="9" style="74"/>
-    <col min="5379" max="5379" width="10.28515625" style="74" customWidth="1"/>
-    <col min="5380" max="5380" width="39.7109375" style="74" customWidth="1"/>
-    <col min="5381" max="5381" width="47.42578125" style="74" customWidth="1"/>
-    <col min="5382" max="5383" width="13.28515625" style="74" customWidth="1"/>
-    <col min="5384" max="5634" width="9" style="74"/>
-    <col min="5635" max="5635" width="10.28515625" style="74" customWidth="1"/>
-    <col min="5636" max="5636" width="39.7109375" style="74" customWidth="1"/>
-    <col min="5637" max="5637" width="47.42578125" style="74" customWidth="1"/>
-    <col min="5638" max="5639" width="13.28515625" style="74" customWidth="1"/>
-    <col min="5640" max="5890" width="9" style="74"/>
-    <col min="5891" max="5891" width="10.28515625" style="74" customWidth="1"/>
-    <col min="5892" max="5892" width="39.7109375" style="74" customWidth="1"/>
-    <col min="5893" max="5893" width="47.42578125" style="74" customWidth="1"/>
-    <col min="5894" max="5895" width="13.28515625" style="74" customWidth="1"/>
-    <col min="5896" max="6146" width="9" style="74"/>
-    <col min="6147" max="6147" width="10.28515625" style="74" customWidth="1"/>
-    <col min="6148" max="6148" width="39.7109375" style="74" customWidth="1"/>
-    <col min="6149" max="6149" width="47.42578125" style="74" customWidth="1"/>
-    <col min="6150" max="6151" width="13.28515625" style="74" customWidth="1"/>
-    <col min="6152" max="6402" width="9" style="74"/>
-    <col min="6403" max="6403" width="10.28515625" style="74" customWidth="1"/>
-    <col min="6404" max="6404" width="39.7109375" style="74" customWidth="1"/>
-    <col min="6405" max="6405" width="47.42578125" style="74" customWidth="1"/>
-    <col min="6406" max="6407" width="13.28515625" style="74" customWidth="1"/>
-    <col min="6408" max="6658" width="9" style="74"/>
-    <col min="6659" max="6659" width="10.28515625" style="74" customWidth="1"/>
-    <col min="6660" max="6660" width="39.7109375" style="74" customWidth="1"/>
-    <col min="6661" max="6661" width="47.42578125" style="74" customWidth="1"/>
-    <col min="6662" max="6663" width="13.28515625" style="74" customWidth="1"/>
-    <col min="6664" max="6914" width="9" style="74"/>
-    <col min="6915" max="6915" width="10.28515625" style="74" customWidth="1"/>
-    <col min="6916" max="6916" width="39.7109375" style="74" customWidth="1"/>
-    <col min="6917" max="6917" width="47.42578125" style="74" customWidth="1"/>
-    <col min="6918" max="6919" width="13.28515625" style="74" customWidth="1"/>
-    <col min="6920" max="7170" width="9" style="74"/>
-    <col min="7171" max="7171" width="10.28515625" style="74" customWidth="1"/>
-    <col min="7172" max="7172" width="39.7109375" style="74" customWidth="1"/>
-    <col min="7173" max="7173" width="47.42578125" style="74" customWidth="1"/>
-    <col min="7174" max="7175" width="13.28515625" style="74" customWidth="1"/>
-    <col min="7176" max="7426" width="9" style="74"/>
-    <col min="7427" max="7427" width="10.28515625" style="74" customWidth="1"/>
-    <col min="7428" max="7428" width="39.7109375" style="74" customWidth="1"/>
-    <col min="7429" max="7429" width="47.42578125" style="74" customWidth="1"/>
-    <col min="7430" max="7431" width="13.28515625" style="74" customWidth="1"/>
-    <col min="7432" max="7682" width="9" style="74"/>
-    <col min="7683" max="7683" width="10.28515625" style="74" customWidth="1"/>
-    <col min="7684" max="7684" width="39.7109375" style="74" customWidth="1"/>
-    <col min="7685" max="7685" width="47.42578125" style="74" customWidth="1"/>
-    <col min="7686" max="7687" width="13.28515625" style="74" customWidth="1"/>
-    <col min="7688" max="7938" width="9" style="74"/>
-    <col min="7939" max="7939" width="10.28515625" style="74" customWidth="1"/>
-    <col min="7940" max="7940" width="39.7109375" style="74" customWidth="1"/>
-    <col min="7941" max="7941" width="47.42578125" style="74" customWidth="1"/>
-    <col min="7942" max="7943" width="13.28515625" style="74" customWidth="1"/>
-    <col min="7944" max="8194" width="9" style="74"/>
-    <col min="8195" max="8195" width="10.28515625" style="74" customWidth="1"/>
-    <col min="8196" max="8196" width="39.7109375" style="74" customWidth="1"/>
-    <col min="8197" max="8197" width="47.42578125" style="74" customWidth="1"/>
-    <col min="8198" max="8199" width="13.28515625" style="74" customWidth="1"/>
-    <col min="8200" max="8450" width="9" style="74"/>
-    <col min="8451" max="8451" width="10.28515625" style="74" customWidth="1"/>
-    <col min="8452" max="8452" width="39.7109375" style="74" customWidth="1"/>
-    <col min="8453" max="8453" width="47.42578125" style="74" customWidth="1"/>
-    <col min="8454" max="8455" width="13.28515625" style="74" customWidth="1"/>
-    <col min="8456" max="8706" width="9" style="74"/>
-    <col min="8707" max="8707" width="10.28515625" style="74" customWidth="1"/>
-    <col min="8708" max="8708" width="39.7109375" style="74" customWidth="1"/>
-    <col min="8709" max="8709" width="47.42578125" style="74" customWidth="1"/>
-    <col min="8710" max="8711" width="13.28515625" style="74" customWidth="1"/>
-    <col min="8712" max="8962" width="9" style="74"/>
-    <col min="8963" max="8963" width="10.28515625" style="74" customWidth="1"/>
-    <col min="8964" max="8964" width="39.7109375" style="74" customWidth="1"/>
-    <col min="8965" max="8965" width="47.42578125" style="74" customWidth="1"/>
-    <col min="8966" max="8967" width="13.28515625" style="74" customWidth="1"/>
-    <col min="8968" max="9218" width="9" style="74"/>
-    <col min="9219" max="9219" width="10.28515625" style="74" customWidth="1"/>
-    <col min="9220" max="9220" width="39.7109375" style="74" customWidth="1"/>
-    <col min="9221" max="9221" width="47.42578125" style="74" customWidth="1"/>
-    <col min="9222" max="9223" width="13.28515625" style="74" customWidth="1"/>
-    <col min="9224" max="9474" width="9" style="74"/>
-    <col min="9475" max="9475" width="10.28515625" style="74" customWidth="1"/>
-    <col min="9476" max="9476" width="39.7109375" style="74" customWidth="1"/>
-    <col min="9477" max="9477" width="47.42578125" style="74" customWidth="1"/>
-    <col min="9478" max="9479" width="13.28515625" style="74" customWidth="1"/>
-    <col min="9480" max="9730" width="9" style="74"/>
-    <col min="9731" max="9731" width="10.28515625" style="74" customWidth="1"/>
-    <col min="9732" max="9732" width="39.7109375" style="74" customWidth="1"/>
-    <col min="9733" max="9733" width="47.42578125" style="74" customWidth="1"/>
-    <col min="9734" max="9735" width="13.28515625" style="74" customWidth="1"/>
-    <col min="9736" max="9986" width="9" style="74"/>
-    <col min="9987" max="9987" width="10.28515625" style="74" customWidth="1"/>
-    <col min="9988" max="9988" width="39.7109375" style="74" customWidth="1"/>
-    <col min="9989" max="9989" width="47.42578125" style="74" customWidth="1"/>
-    <col min="9990" max="9991" width="13.28515625" style="74" customWidth="1"/>
-    <col min="9992" max="10242" width="9" style="74"/>
-    <col min="10243" max="10243" width="10.28515625" style="74" customWidth="1"/>
-    <col min="10244" max="10244" width="39.7109375" style="74" customWidth="1"/>
-    <col min="10245" max="10245" width="47.42578125" style="74" customWidth="1"/>
-    <col min="10246" max="10247" width="13.28515625" style="74" customWidth="1"/>
-    <col min="10248" max="10498" width="9" style="74"/>
-    <col min="10499" max="10499" width="10.28515625" style="74" customWidth="1"/>
-    <col min="10500" max="10500" width="39.7109375" style="74" customWidth="1"/>
-    <col min="10501" max="10501" width="47.42578125" style="74" customWidth="1"/>
-    <col min="10502" max="10503" width="13.28515625" style="74" customWidth="1"/>
-    <col min="10504" max="10754" width="9" style="74"/>
-    <col min="10755" max="10755" width="10.28515625" style="74" customWidth="1"/>
-    <col min="10756" max="10756" width="39.7109375" style="74" customWidth="1"/>
-    <col min="10757" max="10757" width="47.42578125" style="74" customWidth="1"/>
-    <col min="10758" max="10759" width="13.28515625" style="74" customWidth="1"/>
-    <col min="10760" max="11010" width="9" style="74"/>
-    <col min="11011" max="11011" width="10.28515625" style="74" customWidth="1"/>
-    <col min="11012" max="11012" width="39.7109375" style="74" customWidth="1"/>
-    <col min="11013" max="11013" width="47.42578125" style="74" customWidth="1"/>
-    <col min="11014" max="11015" width="13.28515625" style="74" customWidth="1"/>
-    <col min="11016" max="11266" width="9" style="74"/>
-    <col min="11267" max="11267" width="10.28515625" style="74" customWidth="1"/>
-    <col min="11268" max="11268" width="39.7109375" style="74" customWidth="1"/>
-    <col min="11269" max="11269" width="47.42578125" style="74" customWidth="1"/>
-    <col min="11270" max="11271" width="13.28515625" style="74" customWidth="1"/>
-    <col min="11272" max="11522" width="9" style="74"/>
-    <col min="11523" max="11523" width="10.28515625" style="74" customWidth="1"/>
-    <col min="11524" max="11524" width="39.7109375" style="74" customWidth="1"/>
-    <col min="11525" max="11525" width="47.42578125" style="74" customWidth="1"/>
-    <col min="11526" max="11527" width="13.28515625" style="74" customWidth="1"/>
-    <col min="11528" max="11778" width="9" style="74"/>
-    <col min="11779" max="11779" width="10.28515625" style="74" customWidth="1"/>
-    <col min="11780" max="11780" width="39.7109375" style="74" customWidth="1"/>
-    <col min="11781" max="11781" width="47.42578125" style="74" customWidth="1"/>
-    <col min="11782" max="11783" width="13.28515625" style="74" customWidth="1"/>
-    <col min="11784" max="12034" width="9" style="74"/>
-    <col min="12035" max="12035" width="10.28515625" style="74" customWidth="1"/>
-    <col min="12036" max="12036" width="39.7109375" style="74" customWidth="1"/>
-    <col min="12037" max="12037" width="47.42578125" style="74" customWidth="1"/>
-    <col min="12038" max="12039" width="13.28515625" style="74" customWidth="1"/>
-    <col min="12040" max="12290" width="9" style="74"/>
-    <col min="12291" max="12291" width="10.28515625" style="74" customWidth="1"/>
-    <col min="12292" max="12292" width="39.7109375" style="74" customWidth="1"/>
-    <col min="12293" max="12293" width="47.42578125" style="74" customWidth="1"/>
-    <col min="12294" max="12295" width="13.28515625" style="74" customWidth="1"/>
-    <col min="12296" max="12546" width="9" style="74"/>
-    <col min="12547" max="12547" width="10.28515625" style="74" customWidth="1"/>
-    <col min="12548" max="12548" width="39.7109375" style="74" customWidth="1"/>
-    <col min="12549" max="12549" width="47.42578125" style="74" customWidth="1"/>
-    <col min="12550" max="12551" width="13.28515625" style="74" customWidth="1"/>
-    <col min="12552" max="12802" width="9" style="74"/>
-    <col min="12803" max="12803" width="10.28515625" style="74" customWidth="1"/>
-    <col min="12804" max="12804" width="39.7109375" style="74" customWidth="1"/>
-    <col min="12805" max="12805" width="47.42578125" style="74" customWidth="1"/>
-    <col min="12806" max="12807" width="13.28515625" style="74" customWidth="1"/>
-    <col min="12808" max="13058" width="9" style="74"/>
-    <col min="13059" max="13059" width="10.28515625" style="74" customWidth="1"/>
-    <col min="13060" max="13060" width="39.7109375" style="74" customWidth="1"/>
-    <col min="13061" max="13061" width="47.42578125" style="74" customWidth="1"/>
-    <col min="13062" max="13063" width="13.28515625" style="74" customWidth="1"/>
-    <col min="13064" max="13314" width="9" style="74"/>
-    <col min="13315" max="13315" width="10.28515625" style="74" customWidth="1"/>
-    <col min="13316" max="13316" width="39.7109375" style="74" customWidth="1"/>
-    <col min="13317" max="13317" width="47.42578125" style="74" customWidth="1"/>
-    <col min="13318" max="13319" width="13.28515625" style="74" customWidth="1"/>
-    <col min="13320" max="13570" width="9" style="74"/>
-    <col min="13571" max="13571" width="10.28515625" style="74" customWidth="1"/>
-    <col min="13572" max="13572" width="39.7109375" style="74" customWidth="1"/>
-    <col min="13573" max="13573" width="47.42578125" style="74" customWidth="1"/>
-    <col min="13574" max="13575" width="13.28515625" style="74" customWidth="1"/>
-    <col min="13576" max="13826" width="9" style="74"/>
-    <col min="13827" max="13827" width="10.28515625" style="74" customWidth="1"/>
-    <col min="13828" max="13828" width="39.7109375" style="74" customWidth="1"/>
-    <col min="13829" max="13829" width="47.42578125" style="74" customWidth="1"/>
-    <col min="13830" max="13831" width="13.28515625" style="74" customWidth="1"/>
-    <col min="13832" max="14082" width="9" style="74"/>
-    <col min="14083" max="14083" width="10.28515625" style="74" customWidth="1"/>
-    <col min="14084" max="14084" width="39.7109375" style="74" customWidth="1"/>
-    <col min="14085" max="14085" width="47.42578125" style="74" customWidth="1"/>
-    <col min="14086" max="14087" width="13.28515625" style="74" customWidth="1"/>
-    <col min="14088" max="14338" width="9" style="74"/>
-    <col min="14339" max="14339" width="10.28515625" style="74" customWidth="1"/>
-    <col min="14340" max="14340" width="39.7109375" style="74" customWidth="1"/>
-    <col min="14341" max="14341" width="47.42578125" style="74" customWidth="1"/>
-    <col min="14342" max="14343" width="13.28515625" style="74" customWidth="1"/>
-    <col min="14344" max="14594" width="9" style="74"/>
-    <col min="14595" max="14595" width="10.28515625" style="74" customWidth="1"/>
-    <col min="14596" max="14596" width="39.7109375" style="74" customWidth="1"/>
-    <col min="14597" max="14597" width="47.42578125" style="74" customWidth="1"/>
-    <col min="14598" max="14599" width="13.28515625" style="74" customWidth="1"/>
-    <col min="14600" max="14850" width="9" style="74"/>
-    <col min="14851" max="14851" width="10.28515625" style="74" customWidth="1"/>
-    <col min="14852" max="14852" width="39.7109375" style="74" customWidth="1"/>
-    <col min="14853" max="14853" width="47.42578125" style="74" customWidth="1"/>
-    <col min="14854" max="14855" width="13.28515625" style="74" customWidth="1"/>
-    <col min="14856" max="15106" width="9" style="74"/>
-    <col min="15107" max="15107" width="10.28515625" style="74" customWidth="1"/>
-    <col min="15108" max="15108" width="39.7109375" style="74" customWidth="1"/>
-    <col min="15109" max="15109" width="47.42578125" style="74" customWidth="1"/>
-    <col min="15110" max="15111" width="13.28515625" style="74" customWidth="1"/>
-    <col min="15112" max="15362" width="9" style="74"/>
-    <col min="15363" max="15363" width="10.28515625" style="74" customWidth="1"/>
-    <col min="15364" max="15364" width="39.7109375" style="74" customWidth="1"/>
-    <col min="15365" max="15365" width="47.42578125" style="74" customWidth="1"/>
-    <col min="15366" max="15367" width="13.28515625" style="74" customWidth="1"/>
-    <col min="15368" max="15618" width="9" style="74"/>
-    <col min="15619" max="15619" width="10.28515625" style="74" customWidth="1"/>
-    <col min="15620" max="15620" width="39.7109375" style="74" customWidth="1"/>
-    <col min="15621" max="15621" width="47.42578125" style="74" customWidth="1"/>
-    <col min="15622" max="15623" width="13.28515625" style="74" customWidth="1"/>
-    <col min="15624" max="15874" width="9" style="74"/>
-    <col min="15875" max="15875" width="10.28515625" style="74" customWidth="1"/>
-    <col min="15876" max="15876" width="39.7109375" style="74" customWidth="1"/>
-    <col min="15877" max="15877" width="47.42578125" style="74" customWidth="1"/>
-    <col min="15878" max="15879" width="13.28515625" style="74" customWidth="1"/>
-    <col min="15880" max="16130" width="9" style="74"/>
-    <col min="16131" max="16131" width="10.28515625" style="74" customWidth="1"/>
-    <col min="16132" max="16132" width="39.7109375" style="74" customWidth="1"/>
-    <col min="16133" max="16133" width="47.42578125" style="74" customWidth="1"/>
-    <col min="16134" max="16135" width="13.28515625" style="74" customWidth="1"/>
-    <col min="16136" max="16384" width="9" style="74"/>
+    <col min="1" max="1" width="20.5703125" style="73" customWidth="1"/>
+    <col min="2" max="2" width="38" style="73" customWidth="1"/>
+    <col min="3" max="4" width="13.42578125" style="73" customWidth="1"/>
+    <col min="5" max="5" width="51.5703125" style="73" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" style="73" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="73" bestFit="1" customWidth="1"/>
+    <col min="9" max="258" width="9" style="73"/>
+    <col min="259" max="259" width="10.28515625" style="73" customWidth="1"/>
+    <col min="260" max="260" width="39.7109375" style="73" customWidth="1"/>
+    <col min="261" max="261" width="47.42578125" style="73" customWidth="1"/>
+    <col min="262" max="263" width="13.28515625" style="73" customWidth="1"/>
+    <col min="264" max="514" width="9" style="73"/>
+    <col min="515" max="515" width="10.28515625" style="73" customWidth="1"/>
+    <col min="516" max="516" width="39.7109375" style="73" customWidth="1"/>
+    <col min="517" max="517" width="47.42578125" style="73" customWidth="1"/>
+    <col min="518" max="519" width="13.28515625" style="73" customWidth="1"/>
+    <col min="520" max="770" width="9" style="73"/>
+    <col min="771" max="771" width="10.28515625" style="73" customWidth="1"/>
+    <col min="772" max="772" width="39.7109375" style="73" customWidth="1"/>
+    <col min="773" max="773" width="47.42578125" style="73" customWidth="1"/>
+    <col min="774" max="775" width="13.28515625" style="73" customWidth="1"/>
+    <col min="776" max="1026" width="9" style="73"/>
+    <col min="1027" max="1027" width="10.28515625" style="73" customWidth="1"/>
+    <col min="1028" max="1028" width="39.7109375" style="73" customWidth="1"/>
+    <col min="1029" max="1029" width="47.42578125" style="73" customWidth="1"/>
+    <col min="1030" max="1031" width="13.28515625" style="73" customWidth="1"/>
+    <col min="1032" max="1282" width="9" style="73"/>
+    <col min="1283" max="1283" width="10.28515625" style="73" customWidth="1"/>
+    <col min="1284" max="1284" width="39.7109375" style="73" customWidth="1"/>
+    <col min="1285" max="1285" width="47.42578125" style="73" customWidth="1"/>
+    <col min="1286" max="1287" width="13.28515625" style="73" customWidth="1"/>
+    <col min="1288" max="1538" width="9" style="73"/>
+    <col min="1539" max="1539" width="10.28515625" style="73" customWidth="1"/>
+    <col min="1540" max="1540" width="39.7109375" style="73" customWidth="1"/>
+    <col min="1541" max="1541" width="47.42578125" style="73" customWidth="1"/>
+    <col min="1542" max="1543" width="13.28515625" style="73" customWidth="1"/>
+    <col min="1544" max="1794" width="9" style="73"/>
+    <col min="1795" max="1795" width="10.28515625" style="73" customWidth="1"/>
+    <col min="1796" max="1796" width="39.7109375" style="73" customWidth="1"/>
+    <col min="1797" max="1797" width="47.42578125" style="73" customWidth="1"/>
+    <col min="1798" max="1799" width="13.28515625" style="73" customWidth="1"/>
+    <col min="1800" max="2050" width="9" style="73"/>
+    <col min="2051" max="2051" width="10.28515625" style="73" customWidth="1"/>
+    <col min="2052" max="2052" width="39.7109375" style="73" customWidth="1"/>
+    <col min="2053" max="2053" width="47.42578125" style="73" customWidth="1"/>
+    <col min="2054" max="2055" width="13.28515625" style="73" customWidth="1"/>
+    <col min="2056" max="2306" width="9" style="73"/>
+    <col min="2307" max="2307" width="10.28515625" style="73" customWidth="1"/>
+    <col min="2308" max="2308" width="39.7109375" style="73" customWidth="1"/>
+    <col min="2309" max="2309" width="47.42578125" style="73" customWidth="1"/>
+    <col min="2310" max="2311" width="13.28515625" style="73" customWidth="1"/>
+    <col min="2312" max="2562" width="9" style="73"/>
+    <col min="2563" max="2563" width="10.28515625" style="73" customWidth="1"/>
+    <col min="2564" max="2564" width="39.7109375" style="73" customWidth="1"/>
+    <col min="2565" max="2565" width="47.42578125" style="73" customWidth="1"/>
+    <col min="2566" max="2567" width="13.28515625" style="73" customWidth="1"/>
+    <col min="2568" max="2818" width="9" style="73"/>
+    <col min="2819" max="2819" width="10.28515625" style="73" customWidth="1"/>
+    <col min="2820" max="2820" width="39.7109375" style="73" customWidth="1"/>
+    <col min="2821" max="2821" width="47.42578125" style="73" customWidth="1"/>
+    <col min="2822" max="2823" width="13.28515625" style="73" customWidth="1"/>
+    <col min="2824" max="3074" width="9" style="73"/>
+    <col min="3075" max="3075" width="10.28515625" style="73" customWidth="1"/>
+    <col min="3076" max="3076" width="39.7109375" style="73" customWidth="1"/>
+    <col min="3077" max="3077" width="47.42578125" style="73" customWidth="1"/>
+    <col min="3078" max="3079" width="13.28515625" style="73" customWidth="1"/>
+    <col min="3080" max="3330" width="9" style="73"/>
+    <col min="3331" max="3331" width="10.28515625" style="73" customWidth="1"/>
+    <col min="3332" max="3332" width="39.7109375" style="73" customWidth="1"/>
+    <col min="3333" max="3333" width="47.42578125" style="73" customWidth="1"/>
+    <col min="3334" max="3335" width="13.28515625" style="73" customWidth="1"/>
+    <col min="3336" max="3586" width="9" style="73"/>
+    <col min="3587" max="3587" width="10.28515625" style="73" customWidth="1"/>
+    <col min="3588" max="3588" width="39.7109375" style="73" customWidth="1"/>
+    <col min="3589" max="3589" width="47.42578125" style="73" customWidth="1"/>
+    <col min="3590" max="3591" width="13.28515625" style="73" customWidth="1"/>
+    <col min="3592" max="3842" width="9" style="73"/>
+    <col min="3843" max="3843" width="10.28515625" style="73" customWidth="1"/>
+    <col min="3844" max="3844" width="39.7109375" style="73" customWidth="1"/>
+    <col min="3845" max="3845" width="47.42578125" style="73" customWidth="1"/>
+    <col min="3846" max="3847" width="13.28515625" style="73" customWidth="1"/>
+    <col min="3848" max="4098" width="9" style="73"/>
+    <col min="4099" max="4099" width="10.28515625" style="73" customWidth="1"/>
+    <col min="4100" max="4100" width="39.7109375" style="73" customWidth="1"/>
+    <col min="4101" max="4101" width="47.42578125" style="73" customWidth="1"/>
+    <col min="4102" max="4103" width="13.28515625" style="73" customWidth="1"/>
+    <col min="4104" max="4354" width="9" style="73"/>
+    <col min="4355" max="4355" width="10.28515625" style="73" customWidth="1"/>
+    <col min="4356" max="4356" width="39.7109375" style="73" customWidth="1"/>
+    <col min="4357" max="4357" width="47.42578125" style="73" customWidth="1"/>
+    <col min="4358" max="4359" width="13.28515625" style="73" customWidth="1"/>
+    <col min="4360" max="4610" width="9" style="73"/>
+    <col min="4611" max="4611" width="10.28515625" style="73" customWidth="1"/>
+    <col min="4612" max="4612" width="39.7109375" style="73" customWidth="1"/>
+    <col min="4613" max="4613" width="47.42578125" style="73" customWidth="1"/>
+    <col min="4614" max="4615" width="13.28515625" style="73" customWidth="1"/>
+    <col min="4616" max="4866" width="9" style="73"/>
+    <col min="4867" max="4867" width="10.28515625" style="73" customWidth="1"/>
+    <col min="4868" max="4868" width="39.7109375" style="73" customWidth="1"/>
+    <col min="4869" max="4869" width="47.42578125" style="73" customWidth="1"/>
+    <col min="4870" max="4871" width="13.28515625" style="73" customWidth="1"/>
+    <col min="4872" max="5122" width="9" style="73"/>
+    <col min="5123" max="5123" width="10.28515625" style="73" customWidth="1"/>
+    <col min="5124" max="5124" width="39.7109375" style="73" customWidth="1"/>
+    <col min="5125" max="5125" width="47.42578125" style="73" customWidth="1"/>
+    <col min="5126" max="5127" width="13.28515625" style="73" customWidth="1"/>
+    <col min="5128" max="5378" width="9" style="73"/>
+    <col min="5379" max="5379" width="10.28515625" style="73" customWidth="1"/>
+    <col min="5380" max="5380" width="39.7109375" style="73" customWidth="1"/>
+    <col min="5381" max="5381" width="47.42578125" style="73" customWidth="1"/>
+    <col min="5382" max="5383" width="13.28515625" style="73" customWidth="1"/>
+    <col min="5384" max="5634" width="9" style="73"/>
+    <col min="5635" max="5635" width="10.28515625" style="73" customWidth="1"/>
+    <col min="5636" max="5636" width="39.7109375" style="73" customWidth="1"/>
+    <col min="5637" max="5637" width="47.42578125" style="73" customWidth="1"/>
+    <col min="5638" max="5639" width="13.28515625" style="73" customWidth="1"/>
+    <col min="5640" max="5890" width="9" style="73"/>
+    <col min="5891" max="5891" width="10.28515625" style="73" customWidth="1"/>
+    <col min="5892" max="5892" width="39.7109375" style="73" customWidth="1"/>
+    <col min="5893" max="5893" width="47.42578125" style="73" customWidth="1"/>
+    <col min="5894" max="5895" width="13.28515625" style="73" customWidth="1"/>
+    <col min="5896" max="6146" width="9" style="73"/>
+    <col min="6147" max="6147" width="10.28515625" style="73" customWidth="1"/>
+    <col min="6148" max="6148" width="39.7109375" style="73" customWidth="1"/>
+    <col min="6149" max="6149" width="47.42578125" style="73" customWidth="1"/>
+    <col min="6150" max="6151" width="13.28515625" style="73" customWidth="1"/>
+    <col min="6152" max="6402" width="9" style="73"/>
+    <col min="6403" max="6403" width="10.28515625" style="73" customWidth="1"/>
+    <col min="6404" max="6404" width="39.7109375" style="73" customWidth="1"/>
+    <col min="6405" max="6405" width="47.42578125" style="73" customWidth="1"/>
+    <col min="6406" max="6407" width="13.28515625" style="73" customWidth="1"/>
+    <col min="6408" max="6658" width="9" style="73"/>
+    <col min="6659" max="6659" width="10.28515625" style="73" customWidth="1"/>
+    <col min="6660" max="6660" width="39.7109375" style="73" customWidth="1"/>
+    <col min="6661" max="6661" width="47.42578125" style="73" customWidth="1"/>
+    <col min="6662" max="6663" width="13.28515625" style="73" customWidth="1"/>
+    <col min="6664" max="6914" width="9" style="73"/>
+    <col min="6915" max="6915" width="10.28515625" style="73" customWidth="1"/>
+    <col min="6916" max="6916" width="39.7109375" style="73" customWidth="1"/>
+    <col min="6917" max="6917" width="47.42578125" style="73" customWidth="1"/>
+    <col min="6918" max="6919" width="13.28515625" style="73" customWidth="1"/>
+    <col min="6920" max="7170" width="9" style="73"/>
+    <col min="7171" max="7171" width="10.28515625" style="73" customWidth="1"/>
+    <col min="7172" max="7172" width="39.7109375" style="73" customWidth="1"/>
+    <col min="7173" max="7173" width="47.42578125" style="73" customWidth="1"/>
+    <col min="7174" max="7175" width="13.28515625" style="73" customWidth="1"/>
+    <col min="7176" max="7426" width="9" style="73"/>
+    <col min="7427" max="7427" width="10.28515625" style="73" customWidth="1"/>
+    <col min="7428" max="7428" width="39.7109375" style="73" customWidth="1"/>
+    <col min="7429" max="7429" width="47.42578125" style="73" customWidth="1"/>
+    <col min="7430" max="7431" width="13.28515625" style="73" customWidth="1"/>
+    <col min="7432" max="7682" width="9" style="73"/>
+    <col min="7683" max="7683" width="10.28515625" style="73" customWidth="1"/>
+    <col min="7684" max="7684" width="39.7109375" style="73" customWidth="1"/>
+    <col min="7685" max="7685" width="47.42578125" style="73" customWidth="1"/>
+    <col min="7686" max="7687" width="13.28515625" style="73" customWidth="1"/>
+    <col min="7688" max="7938" width="9" style="73"/>
+    <col min="7939" max="7939" width="10.28515625" style="73" customWidth="1"/>
+    <col min="7940" max="7940" width="39.7109375" style="73" customWidth="1"/>
+    <col min="7941" max="7941" width="47.42578125" style="73" customWidth="1"/>
+    <col min="7942" max="7943" width="13.28515625" style="73" customWidth="1"/>
+    <col min="7944" max="8194" width="9" style="73"/>
+    <col min="8195" max="8195" width="10.28515625" style="73" customWidth="1"/>
+    <col min="8196" max="8196" width="39.7109375" style="73" customWidth="1"/>
+    <col min="8197" max="8197" width="47.42578125" style="73" customWidth="1"/>
+    <col min="8198" max="8199" width="13.28515625" style="73" customWidth="1"/>
+    <col min="8200" max="8450" width="9" style="73"/>
+    <col min="8451" max="8451" width="10.28515625" style="73" customWidth="1"/>
+    <col min="8452" max="8452" width="39.7109375" style="73" customWidth="1"/>
+    <col min="8453" max="8453" width="47.42578125" style="73" customWidth="1"/>
+    <col min="8454" max="8455" width="13.28515625" style="73" customWidth="1"/>
+    <col min="8456" max="8706" width="9" style="73"/>
+    <col min="8707" max="8707" width="10.28515625" style="73" customWidth="1"/>
+    <col min="8708" max="8708" width="39.7109375" style="73" customWidth="1"/>
+    <col min="8709" max="8709" width="47.42578125" style="73" customWidth="1"/>
+    <col min="8710" max="8711" width="13.28515625" style="73" customWidth="1"/>
+    <col min="8712" max="8962" width="9" style="73"/>
+    <col min="8963" max="8963" width="10.28515625" style="73" customWidth="1"/>
+    <col min="8964" max="8964" width="39.7109375" style="73" customWidth="1"/>
+    <col min="8965" max="8965" width="47.42578125" style="73" customWidth="1"/>
+    <col min="8966" max="8967" width="13.28515625" style="73" customWidth="1"/>
+    <col min="8968" max="9218" width="9" style="73"/>
+    <col min="9219" max="9219" width="10.28515625" style="73" customWidth="1"/>
+    <col min="9220" max="9220" width="39.7109375" style="73" customWidth="1"/>
+    <col min="9221" max="9221" width="47.42578125" style="73" customWidth="1"/>
+    <col min="9222" max="9223" width="13.28515625" style="73" customWidth="1"/>
+    <col min="9224" max="9474" width="9" style="73"/>
+    <col min="9475" max="9475" width="10.28515625" style="73" customWidth="1"/>
+    <col min="9476" max="9476" width="39.7109375" style="73" customWidth="1"/>
+    <col min="9477" max="9477" width="47.42578125" style="73" customWidth="1"/>
+    <col min="9478" max="9479" width="13.28515625" style="73" customWidth="1"/>
+    <col min="9480" max="9730" width="9" style="73"/>
+    <col min="9731" max="9731" width="10.28515625" style="73" customWidth="1"/>
+    <col min="9732" max="9732" width="39.7109375" style="73" customWidth="1"/>
+    <col min="9733" max="9733" width="47.42578125" style="73" customWidth="1"/>
+    <col min="9734" max="9735" width="13.28515625" style="73" customWidth="1"/>
+    <col min="9736" max="9986" width="9" style="73"/>
+    <col min="9987" max="9987" width="10.28515625" style="73" customWidth="1"/>
+    <col min="9988" max="9988" width="39.7109375" style="73" customWidth="1"/>
+    <col min="9989" max="9989" width="47.42578125" style="73" customWidth="1"/>
+    <col min="9990" max="9991" width="13.28515625" style="73" customWidth="1"/>
+    <col min="9992" max="10242" width="9" style="73"/>
+    <col min="10243" max="10243" width="10.28515625" style="73" customWidth="1"/>
+    <col min="10244" max="10244" width="39.7109375" style="73" customWidth="1"/>
+    <col min="10245" max="10245" width="47.42578125" style="73" customWidth="1"/>
+    <col min="10246" max="10247" width="13.28515625" style="73" customWidth="1"/>
+    <col min="10248" max="10498" width="9" style="73"/>
+    <col min="10499" max="10499" width="10.28515625" style="73" customWidth="1"/>
+    <col min="10500" max="10500" width="39.7109375" style="73" customWidth="1"/>
+    <col min="10501" max="10501" width="47.42578125" style="73" customWidth="1"/>
+    <col min="10502" max="10503" width="13.28515625" style="73" customWidth="1"/>
+    <col min="10504" max="10754" width="9" style="73"/>
+    <col min="10755" max="10755" width="10.28515625" style="73" customWidth="1"/>
+    <col min="10756" max="10756" width="39.7109375" style="73" customWidth="1"/>
+    <col min="10757" max="10757" width="47.42578125" style="73" customWidth="1"/>
+    <col min="10758" max="10759" width="13.28515625" style="73" customWidth="1"/>
+    <col min="10760" max="11010" width="9" style="73"/>
+    <col min="11011" max="11011" width="10.28515625" style="73" customWidth="1"/>
+    <col min="11012" max="11012" width="39.7109375" style="73" customWidth="1"/>
+    <col min="11013" max="11013" width="47.42578125" style="73" customWidth="1"/>
+    <col min="11014" max="11015" width="13.28515625" style="73" customWidth="1"/>
+    <col min="11016" max="11266" width="9" style="73"/>
+    <col min="11267" max="11267" width="10.28515625" style="73" customWidth="1"/>
+    <col min="11268" max="11268" width="39.7109375" style="73" customWidth="1"/>
+    <col min="11269" max="11269" width="47.42578125" style="73" customWidth="1"/>
+    <col min="11270" max="11271" width="13.28515625" style="73" customWidth="1"/>
+    <col min="11272" max="11522" width="9" style="73"/>
+    <col min="11523" max="11523" width="10.28515625" style="73" customWidth="1"/>
+    <col min="11524" max="11524" width="39.7109375" style="73" customWidth="1"/>
+    <col min="11525" max="11525" width="47.42578125" style="73" customWidth="1"/>
+    <col min="11526" max="11527" width="13.28515625" style="73" customWidth="1"/>
+    <col min="11528" max="11778" width="9" style="73"/>
+    <col min="11779" max="11779" width="10.28515625" style="73" customWidth="1"/>
+    <col min="11780" max="11780" width="39.7109375" style="73" customWidth="1"/>
+    <col min="11781" max="11781" width="47.42578125" style="73" customWidth="1"/>
+    <col min="11782" max="11783" width="13.28515625" style="73" customWidth="1"/>
+    <col min="11784" max="12034" width="9" style="73"/>
+    <col min="12035" max="12035" width="10.28515625" style="73" customWidth="1"/>
+    <col min="12036" max="12036" width="39.7109375" style="73" customWidth="1"/>
+    <col min="12037" max="12037" width="47.42578125" style="73" customWidth="1"/>
+    <col min="12038" max="12039" width="13.28515625" style="73" customWidth="1"/>
+    <col min="12040" max="12290" width="9" style="73"/>
+    <col min="12291" max="12291" width="10.28515625" style="73" customWidth="1"/>
+    <col min="12292" max="12292" width="39.7109375" style="73" customWidth="1"/>
+    <col min="12293" max="12293" width="47.42578125" style="73" customWidth="1"/>
+    <col min="12294" max="12295" width="13.28515625" style="73" customWidth="1"/>
+    <col min="12296" max="12546" width="9" style="73"/>
+    <col min="12547" max="12547" width="10.28515625" style="73" customWidth="1"/>
+    <col min="12548" max="12548" width="39.7109375" style="73" customWidth="1"/>
+    <col min="12549" max="12549" width="47.42578125" style="73" customWidth="1"/>
+    <col min="12550" max="12551" width="13.28515625" style="73" customWidth="1"/>
+    <col min="12552" max="12802" width="9" style="73"/>
+    <col min="12803" max="12803" width="10.28515625" style="73" customWidth="1"/>
+    <col min="12804" max="12804" width="39.7109375" style="73" customWidth="1"/>
+    <col min="12805" max="12805" width="47.42578125" style="73" customWidth="1"/>
+    <col min="12806" max="12807" width="13.28515625" style="73" customWidth="1"/>
+    <col min="12808" max="13058" width="9" style="73"/>
+    <col min="13059" max="13059" width="10.28515625" style="73" customWidth="1"/>
+    <col min="13060" max="13060" width="39.7109375" style="73" customWidth="1"/>
+    <col min="13061" max="13061" width="47.42578125" style="73" customWidth="1"/>
+    <col min="13062" max="13063" width="13.28515625" style="73" customWidth="1"/>
+    <col min="13064" max="13314" width="9" style="73"/>
+    <col min="13315" max="13315" width="10.28515625" style="73" customWidth="1"/>
+    <col min="13316" max="13316" width="39.7109375" style="73" customWidth="1"/>
+    <col min="13317" max="13317" width="47.42578125" style="73" customWidth="1"/>
+    <col min="13318" max="13319" width="13.28515625" style="73" customWidth="1"/>
+    <col min="13320" max="13570" width="9" style="73"/>
+    <col min="13571" max="13571" width="10.28515625" style="73" customWidth="1"/>
+    <col min="13572" max="13572" width="39.7109375" style="73" customWidth="1"/>
+    <col min="13573" max="13573" width="47.42578125" style="73" customWidth="1"/>
+    <col min="13574" max="13575" width="13.28515625" style="73" customWidth="1"/>
+    <col min="13576" max="13826" width="9" style="73"/>
+    <col min="13827" max="13827" width="10.28515625" style="73" customWidth="1"/>
+    <col min="13828" max="13828" width="39.7109375" style="73" customWidth="1"/>
+    <col min="13829" max="13829" width="47.42578125" style="73" customWidth="1"/>
+    <col min="13830" max="13831" width="13.28515625" style="73" customWidth="1"/>
+    <col min="13832" max="14082" width="9" style="73"/>
+    <col min="14083" max="14083" width="10.28515625" style="73" customWidth="1"/>
+    <col min="14084" max="14084" width="39.7109375" style="73" customWidth="1"/>
+    <col min="14085" max="14085" width="47.42578125" style="73" customWidth="1"/>
+    <col min="14086" max="14087" width="13.28515625" style="73" customWidth="1"/>
+    <col min="14088" max="14338" width="9" style="73"/>
+    <col min="14339" max="14339" width="10.28515625" style="73" customWidth="1"/>
+    <col min="14340" max="14340" width="39.7109375" style="73" customWidth="1"/>
+    <col min="14341" max="14341" width="47.42578125" style="73" customWidth="1"/>
+    <col min="14342" max="14343" width="13.28515625" style="73" customWidth="1"/>
+    <col min="14344" max="14594" width="9" style="73"/>
+    <col min="14595" max="14595" width="10.28515625" style="73" customWidth="1"/>
+    <col min="14596" max="14596" width="39.7109375" style="73" customWidth="1"/>
+    <col min="14597" max="14597" width="47.42578125" style="73" customWidth="1"/>
+    <col min="14598" max="14599" width="13.28515625" style="73" customWidth="1"/>
+    <col min="14600" max="14850" width="9" style="73"/>
+    <col min="14851" max="14851" width="10.28515625" style="73" customWidth="1"/>
+    <col min="14852" max="14852" width="39.7109375" style="73" customWidth="1"/>
+    <col min="14853" max="14853" width="47.42578125" style="73" customWidth="1"/>
+    <col min="14854" max="14855" width="13.28515625" style="73" customWidth="1"/>
+    <col min="14856" max="15106" width="9" style="73"/>
+    <col min="15107" max="15107" width="10.28515625" style="73" customWidth="1"/>
+    <col min="15108" max="15108" width="39.7109375" style="73" customWidth="1"/>
+    <col min="15109" max="15109" width="47.42578125" style="73" customWidth="1"/>
+    <col min="15110" max="15111" width="13.28515625" style="73" customWidth="1"/>
+    <col min="15112" max="15362" width="9" style="73"/>
+    <col min="15363" max="15363" width="10.28515625" style="73" customWidth="1"/>
+    <col min="15364" max="15364" width="39.7109375" style="73" customWidth="1"/>
+    <col min="15365" max="15365" width="47.42578125" style="73" customWidth="1"/>
+    <col min="15366" max="15367" width="13.28515625" style="73" customWidth="1"/>
+    <col min="15368" max="15618" width="9" style="73"/>
+    <col min="15619" max="15619" width="10.28515625" style="73" customWidth="1"/>
+    <col min="15620" max="15620" width="39.7109375" style="73" customWidth="1"/>
+    <col min="15621" max="15621" width="47.42578125" style="73" customWidth="1"/>
+    <col min="15622" max="15623" width="13.28515625" style="73" customWidth="1"/>
+    <col min="15624" max="15874" width="9" style="73"/>
+    <col min="15875" max="15875" width="10.28515625" style="73" customWidth="1"/>
+    <col min="15876" max="15876" width="39.7109375" style="73" customWidth="1"/>
+    <col min="15877" max="15877" width="47.42578125" style="73" customWidth="1"/>
+    <col min="15878" max="15879" width="13.28515625" style="73" customWidth="1"/>
+    <col min="15880" max="16130" width="9" style="73"/>
+    <col min="16131" max="16131" width="10.28515625" style="73" customWidth="1"/>
+    <col min="16132" max="16132" width="39.7109375" style="73" customWidth="1"/>
+    <col min="16133" max="16133" width="47.42578125" style="73" customWidth="1"/>
+    <col min="16134" max="16135" width="13.28515625" style="73" customWidth="1"/>
+    <col min="16136" max="16384" width="9" style="73"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="178" t="s">
         <v>298</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
     </row>
     <row r="2" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" thickBot="1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="74" t="s">
         <v>299</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="76" t="s">
         <v>300</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="77" t="s">
         <v>301</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="F3" s="80" t="s">
+      <c r="F3" s="79" t="s">
         <v>303</v>
       </c>
-      <c r="G3" s="78" t="s">
+      <c r="G3" s="77" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="87" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A4" s="181" t="s">
+    <row r="4" spans="1:8" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A4" s="180" t="s">
         <v>305</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="80" t="s">
         <v>306</v>
       </c>
-      <c r="C4" s="82">
+      <c r="C4" s="81">
         <v>700000</v>
       </c>
-      <c r="D4" s="83">
+      <c r="D4" s="82">
         <v>400000</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="83" t="s">
         <v>307</v>
       </c>
-      <c r="F4" s="85">
+      <c r="F4" s="84">
         <v>700000</v>
       </c>
-      <c r="G4" s="86">
+      <c r="G4" s="85">
         <v>400000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="87" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="182"/>
-      <c r="B5" s="88" t="s">
+    <row r="5" spans="1:8" s="86" customFormat="1" ht="30" customHeight="1">
+      <c r="A5" s="181"/>
+      <c r="B5" s="87" t="s">
         <v>308</v>
       </c>
-      <c r="C5" s="89">
+      <c r="C5" s="88">
         <v>350000</v>
       </c>
-      <c r="D5" s="90">
+      <c r="D5" s="89">
         <v>240000</v>
       </c>
-      <c r="E5" s="91" t="s">
+      <c r="E5" s="90" t="s">
         <v>309</v>
       </c>
-      <c r="F5" s="92">
+      <c r="F5" s="91">
         <v>350000</v>
       </c>
-      <c r="G5" s="83">
+      <c r="G5" s="82">
         <v>240000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="87" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="182"/>
-      <c r="B6" s="93" t="s">
+    <row r="6" spans="1:8" s="86" customFormat="1" ht="30" customHeight="1">
+      <c r="A6" s="181"/>
+      <c r="B6" s="92" t="s">
         <v>310</v>
       </c>
-      <c r="C6" s="94">
+      <c r="C6" s="93">
         <v>350000</v>
       </c>
-      <c r="D6" s="86">
+      <c r="D6" s="85">
         <v>200000</v>
       </c>
-      <c r="E6" s="95" t="s">
+      <c r="E6" s="94" t="s">
         <v>311</v>
       </c>
-      <c r="F6" s="85">
+      <c r="F6" s="84">
         <v>350000</v>
       </c>
-      <c r="G6" s="86">
+      <c r="G6" s="85">
         <v>200000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="87" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="182"/>
-      <c r="B7" s="93" t="s">
+    <row r="7" spans="1:8" s="86" customFormat="1" ht="30" customHeight="1">
+      <c r="A7" s="181"/>
+      <c r="B7" s="92" t="s">
         <v>312</v>
       </c>
-      <c r="C7" s="94">
+      <c r="C7" s="93">
         <v>400000</v>
       </c>
-      <c r="D7" s="86">
+      <c r="D7" s="85">
         <v>300000</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="94" t="s">
         <v>313</v>
       </c>
-      <c r="F7" s="85"/>
-      <c r="G7" s="86"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="85"/>
     </row>
-    <row r="8" spans="1:8" s="87" customFormat="1" ht="30" customHeight="1">
-      <c r="A8" s="182"/>
-      <c r="B8" s="93" t="s">
+    <row r="8" spans="1:8" s="86" customFormat="1" ht="30" customHeight="1">
+      <c r="A8" s="181"/>
+      <c r="B8" s="92" t="s">
         <v>314</v>
       </c>
-      <c r="C8" s="94">
+      <c r="C8" s="93">
         <v>350000</v>
       </c>
-      <c r="D8" s="86">
+      <c r="D8" s="85">
         <v>200000</v>
       </c>
-      <c r="E8" s="95" t="s">
+      <c r="E8" s="94" t="s">
         <v>315</v>
       </c>
-      <c r="F8" s="85">
+      <c r="F8" s="84">
         <v>350000</v>
       </c>
-      <c r="G8" s="86">
+      <c r="G8" s="85">
         <v>200000</v>
       </c>
-      <c r="H8" s="96"/>
+      <c r="H8" s="95"/>
     </row>
-    <row r="9" spans="1:8" s="87" customFormat="1" ht="30" customHeight="1">
-      <c r="A9" s="182"/>
-      <c r="B9" s="93" t="s">
+    <row r="9" spans="1:8" s="86" customFormat="1" ht="30" customHeight="1">
+      <c r="A9" s="181"/>
+      <c r="B9" s="92" t="s">
         <v>316</v>
       </c>
-      <c r="C9" s="94">
+      <c r="C9" s="93">
         <v>350000</v>
       </c>
-      <c r="D9" s="86">
+      <c r="D9" s="85">
         <v>240000</v>
       </c>
-      <c r="E9" s="95" t="s">
+      <c r="E9" s="94" t="s">
         <v>317</v>
       </c>
-      <c r="F9" s="85">
+      <c r="F9" s="84">
         <v>350000</v>
       </c>
-      <c r="G9" s="86">
+      <c r="G9" s="85">
         <v>240000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="87" customFormat="1" ht="30" customHeight="1">
-      <c r="A10" s="182"/>
-      <c r="B10" s="93" t="s">
+    <row r="10" spans="1:8" s="86" customFormat="1" ht="30" customHeight="1">
+      <c r="A10" s="181"/>
+      <c r="B10" s="92" t="s">
         <v>318</v>
       </c>
-      <c r="C10" s="94">
+      <c r="C10" s="93">
         <v>350000</v>
       </c>
-      <c r="D10" s="86">
+      <c r="D10" s="85">
         <v>240000</v>
       </c>
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="94" t="s">
         <v>319</v>
       </c>
-      <c r="F10" s="85">
+      <c r="F10" s="84">
         <v>350000</v>
       </c>
-      <c r="G10" s="86">
+      <c r="G10" s="85">
         <v>240000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="87" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A11" s="183"/>
-      <c r="B11" s="97" t="s">
+    <row r="11" spans="1:8" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A11" s="182"/>
+      <c r="B11" s="96" t="s">
         <v>320</v>
       </c>
-      <c r="C11" s="98">
+      <c r="C11" s="97">
         <v>350000</v>
       </c>
-      <c r="D11" s="99">
+      <c r="D11" s="98">
         <v>240000</v>
       </c>
-      <c r="E11" s="100" t="s">
+      <c r="E11" s="99" t="s">
         <v>321</v>
       </c>
-      <c r="F11" s="101">
+      <c r="F11" s="100">
         <v>350000</v>
       </c>
-      <c r="G11" s="99">
+      <c r="G11" s="98">
         <v>240000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="87" customFormat="1" ht="30" customHeight="1">
-      <c r="A12" s="184" t="s">
+    <row r="12" spans="1:8" s="86" customFormat="1" ht="30" customHeight="1">
+      <c r="A12" s="183" t="s">
         <v>322</v>
       </c>
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="101" t="s">
         <v>323</v>
       </c>
-      <c r="C12" s="82">
+      <c r="C12" s="81">
         <v>150000</v>
       </c>
-      <c r="D12" s="83">
+      <c r="D12" s="82">
         <v>80000</v>
       </c>
-      <c r="E12" s="84" t="s">
+      <c r="E12" s="83" t="s">
         <v>309</v>
       </c>
-      <c r="F12" s="92">
+      <c r="F12" s="91">
         <v>150000</v>
       </c>
-      <c r="G12" s="83">
+      <c r="G12" s="82">
         <v>80000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="87" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="185"/>
-      <c r="B13" s="103" t="s">
+    <row r="13" spans="1:8" s="86" customFormat="1" ht="30" customHeight="1">
+      <c r="A13" s="184"/>
+      <c r="B13" s="102" t="s">
         <v>324</v>
       </c>
-      <c r="C13" s="94">
+      <c r="C13" s="93">
         <v>150000</v>
       </c>
-      <c r="D13" s="86">
+      <c r="D13" s="85">
         <v>80000</v>
       </c>
-      <c r="E13" s="95" t="s">
+      <c r="E13" s="94" t="s">
         <v>325</v>
       </c>
-      <c r="F13" s="85">
+      <c r="F13" s="84">
         <v>150000</v>
       </c>
-      <c r="G13" s="86">
+      <c r="G13" s="85">
         <v>80000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="87" customFormat="1" ht="30" customHeight="1">
-      <c r="A14" s="185"/>
-      <c r="B14" s="103" t="s">
+    <row r="14" spans="1:8" s="86" customFormat="1" ht="30" customHeight="1">
+      <c r="A14" s="184"/>
+      <c r="B14" s="102" t="s">
         <v>326</v>
       </c>
-      <c r="C14" s="94">
+      <c r="C14" s="93">
         <v>150000</v>
       </c>
-      <c r="D14" s="86">
+      <c r="D14" s="85">
         <v>80000</v>
       </c>
-      <c r="E14" s="95" t="s">
+      <c r="E14" s="94" t="s">
         <v>327</v>
       </c>
-      <c r="F14" s="85">
+      <c r="F14" s="84">
         <v>150000</v>
       </c>
-      <c r="G14" s="86">
+      <c r="G14" s="85">
         <v>80000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="87" customFormat="1" ht="30" customHeight="1">
-      <c r="A15" s="185"/>
-      <c r="B15" s="103" t="s">
+    <row r="15" spans="1:8" s="86" customFormat="1" ht="30" customHeight="1">
+      <c r="A15" s="184"/>
+      <c r="B15" s="102" t="s">
         <v>328</v>
       </c>
-      <c r="C15" s="94">
+      <c r="C15" s="93">
         <v>150000</v>
       </c>
-      <c r="D15" s="86">
+      <c r="D15" s="85">
         <v>80000</v>
       </c>
-      <c r="E15" s="95" t="s">
+      <c r="E15" s="94" t="s">
         <v>329</v>
       </c>
-      <c r="F15" s="85">
+      <c r="F15" s="84">
         <v>150000</v>
       </c>
-      <c r="G15" s="86">
+      <c r="G15" s="85">
         <v>80000</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="87" customFormat="1" ht="30" customHeight="1">
-      <c r="A16" s="185"/>
-      <c r="B16" s="93" t="s">
+    <row r="16" spans="1:8" s="86" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="184"/>
+      <c r="B16" s="92" t="s">
         <v>330</v>
       </c>
-      <c r="C16" s="94">
+      <c r="C16" s="93">
         <v>150000</v>
       </c>
-      <c r="D16" s="86">
+      <c r="D16" s="85">
         <v>80000</v>
       </c>
-      <c r="E16" s="95" t="s">
+      <c r="E16" s="94" t="s">
         <v>331</v>
       </c>
-      <c r="F16" s="85">
+      <c r="F16" s="84">
         <v>150000</v>
       </c>
-      <c r="G16" s="86">
+      <c r="G16" s="85">
         <v>80000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="87" customFormat="1" ht="30" customHeight="1">
-      <c r="A17" s="186"/>
-      <c r="B17" s="104" t="s">
+    <row r="17" spans="1:7" s="86" customFormat="1" ht="30" customHeight="1">
+      <c r="A17" s="185"/>
+      <c r="B17" s="103" t="s">
         <v>332</v>
       </c>
-      <c r="C17" s="94">
+      <c r="C17" s="93">
         <v>150000</v>
       </c>
-      <c r="D17" s="86">
+      <c r="D17" s="85">
         <v>80000</v>
       </c>
-      <c r="E17" s="105" t="s">
+      <c r="E17" s="104" t="s">
         <v>333</v>
       </c>
-      <c r="F17" s="106"/>
-      <c r="G17" s="107"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="106"/>
     </row>
-    <row r="18" spans="1:7" s="87" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A18" s="187"/>
-      <c r="B18" s="108" t="s">
+    <row r="18" spans="1:7" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A18" s="186"/>
+      <c r="B18" s="107" t="s">
         <v>334</v>
       </c>
-      <c r="C18" s="98">
+      <c r="C18" s="97">
         <v>150000</v>
       </c>
-      <c r="D18" s="99">
+      <c r="D18" s="98">
         <v>80000</v>
       </c>
-      <c r="E18" s="100" t="s">
+      <c r="E18" s="99" t="s">
         <v>335</v>
       </c>
-      <c r="F18" s="101">
+      <c r="F18" s="100">
         <v>150000</v>
       </c>
-      <c r="G18" s="99">
+      <c r="G18" s="98">
         <v>80000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="87" customFormat="1" ht="30" customHeight="1">
-      <c r="A19" s="188" t="s">
+    <row r="19" spans="1:7" s="86" customFormat="1" ht="30" customHeight="1">
+      <c r="A19" s="187" t="s">
         <v>336</v>
       </c>
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="101" t="s">
         <v>337</v>
       </c>
-      <c r="C19" s="82">
+      <c r="C19" s="81">
         <v>150000</v>
       </c>
-      <c r="D19" s="83">
+      <c r="D19" s="82">
         <v>120000</v>
       </c>
-      <c r="E19" s="84" t="s">
+      <c r="E19" s="83" t="s">
         <v>338</v>
       </c>
-      <c r="F19" s="92">
+      <c r="F19" s="91">
         <v>150000</v>
       </c>
-      <c r="G19" s="83">
+      <c r="G19" s="82">
         <v>100000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="87" customFormat="1" ht="30" customHeight="1">
-      <c r="A20" s="177"/>
-      <c r="B20" s="103" t="s">
+    <row r="20" spans="1:7" s="86" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="176"/>
+      <c r="B20" s="102" t="s">
         <v>339</v>
       </c>
-      <c r="C20" s="94">
+      <c r="C20" s="93">
         <v>100000</v>
       </c>
-      <c r="D20" s="86">
+      <c r="D20" s="85">
         <v>60000</v>
       </c>
-      <c r="E20" s="109" t="s">
+      <c r="E20" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="85">
+      <c r="F20" s="84">
         <v>100000</v>
       </c>
-      <c r="G20" s="86">
+      <c r="G20" s="85">
         <v>60000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="87" customFormat="1" ht="30" customHeight="1">
-      <c r="A21" s="177"/>
-      <c r="B21" s="103" t="s">
+    <row r="21" spans="1:7" s="86" customFormat="1" ht="30" customHeight="1">
+      <c r="A21" s="176"/>
+      <c r="B21" s="102" t="s">
         <v>340</v>
       </c>
-      <c r="C21" s="94">
+      <c r="C21" s="93">
         <v>80000</v>
       </c>
-      <c r="D21" s="86">
+      <c r="D21" s="85">
         <v>50000</v>
       </c>
-      <c r="E21" s="95" t="s">
+      <c r="E21" s="94" t="s">
         <v>341</v>
       </c>
-      <c r="F21" s="85">
+      <c r="F21" s="84">
         <v>80000</v>
       </c>
-      <c r="G21" s="86">
+      <c r="G21" s="85">
         <v>50000</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="87" customFormat="1" ht="30" customHeight="1">
-      <c r="A22" s="177"/>
-      <c r="B22" s="103" t="s">
+    <row r="22" spans="1:7" s="86" customFormat="1" ht="30" customHeight="1">
+      <c r="A22" s="176"/>
+      <c r="B22" s="102" t="s">
         <v>342</v>
       </c>
-      <c r="C22" s="94">
+      <c r="C22" s="93">
         <v>80000</v>
       </c>
-      <c r="D22" s="86">
+      <c r="D22" s="85">
         <v>30000</v>
       </c>
-      <c r="E22" s="95" t="s">
+      <c r="E22" s="94" t="s">
         <v>343</v>
       </c>
-      <c r="F22" s="85">
+      <c r="F22" s="84">
         <v>80000</v>
       </c>
-      <c r="G22" s="86">
+      <c r="G22" s="85">
         <v>30000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="87" customFormat="1" ht="30" customHeight="1">
-      <c r="A23" s="177"/>
-      <c r="B23" s="103" t="s">
+    <row r="23" spans="1:7" s="86" customFormat="1" ht="30" customHeight="1">
+      <c r="A23" s="176"/>
+      <c r="B23" s="102" t="s">
         <v>344</v>
       </c>
-      <c r="C23" s="94">
+      <c r="C23" s="93">
         <v>80000</v>
       </c>
-      <c r="D23" s="86">
+      <c r="D23" s="85">
         <v>30000</v>
       </c>
-      <c r="E23" s="95" t="s">
+      <c r="E23" s="94" t="s">
         <v>345</v>
       </c>
-      <c r="F23" s="85">
+      <c r="F23" s="84">
         <v>80000</v>
       </c>
-      <c r="G23" s="86">
+      <c r="G23" s="85">
         <v>30000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="87" customFormat="1" ht="30" customHeight="1">
-      <c r="A24" s="177"/>
-      <c r="B24" s="103" t="s">
+    <row r="24" spans="1:7" s="86" customFormat="1" ht="30" customHeight="1">
+      <c r="A24" s="176"/>
+      <c r="B24" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="94">
+      <c r="C24" s="93">
         <v>80000</v>
       </c>
-      <c r="D24" s="86">
+      <c r="D24" s="85">
         <v>30000</v>
       </c>
-      <c r="E24" s="95" t="s">
+      <c r="E24" s="94" t="s">
         <v>346</v>
       </c>
-      <c r="F24" s="85">
+      <c r="F24" s="84">
         <v>80000</v>
       </c>
-      <c r="G24" s="86">
+      <c r="G24" s="85">
         <v>30000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="87" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A25" s="178"/>
-      <c r="B25" s="108" t="s">
+    <row r="25" spans="1:7" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A25" s="177"/>
+      <c r="B25" s="107" t="s">
         <v>347</v>
       </c>
-      <c r="C25" s="98">
+      <c r="C25" s="97">
         <v>80000</v>
       </c>
-      <c r="D25" s="99">
+      <c r="D25" s="98">
         <v>30000</v>
       </c>
-      <c r="E25" s="100" t="s">
+      <c r="E25" s="99" t="s">
         <v>348</v>
       </c>
-      <c r="F25" s="101">
+      <c r="F25" s="100">
         <v>80000</v>
       </c>
-      <c r="G25" s="99">
+      <c r="G25" s="98">
         <v>30000</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="87" customFormat="1" ht="30" customHeight="1">
-      <c r="A26" s="184" t="s">
+    <row r="26" spans="1:7" s="86" customFormat="1" ht="30" customHeight="1">
+      <c r="A26" s="183" t="s">
         <v>349</v>
       </c>
-      <c r="B26" s="102" t="s">
+      <c r="B26" s="101" t="s">
         <v>350</v>
       </c>
-      <c r="C26" s="82">
+      <c r="C26" s="81">
         <v>150000</v>
       </c>
-      <c r="D26" s="83">
+      <c r="D26" s="82">
         <v>80000</v>
       </c>
-      <c r="E26" s="84" t="s">
+      <c r="E26" s="83" t="s">
         <v>351</v>
       </c>
-      <c r="F26" s="92">
+      <c r="F26" s="91">
         <v>150000</v>
       </c>
-      <c r="G26" s="83">
+      <c r="G26" s="82">
         <v>70000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="87" customFormat="1" ht="30" customHeight="1">
-      <c r="A27" s="185"/>
-      <c r="B27" s="103" t="s">
+    <row r="27" spans="1:7" s="86" customFormat="1" ht="30" customHeight="1">
+      <c r="A27" s="184"/>
+      <c r="B27" s="102" t="s">
         <v>352</v>
       </c>
-      <c r="C27" s="94">
+      <c r="C27" s="93">
         <v>50000</v>
       </c>
-      <c r="D27" s="86">
+      <c r="D27" s="85">
         <v>40000</v>
       </c>
-      <c r="E27" s="95" t="s">
+      <c r="E27" s="94" t="s">
         <v>353</v>
       </c>
-      <c r="F27" s="85">
+      <c r="F27" s="84">
         <v>50000</v>
       </c>
-      <c r="G27" s="86">
+      <c r="G27" s="85">
         <v>30000</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="87" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A28" s="187"/>
-      <c r="B28" s="108" t="s">
+    <row r="28" spans="1:7" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A28" s="186"/>
+      <c r="B28" s="107" t="s">
         <v>354</v>
       </c>
-      <c r="C28" s="98">
+      <c r="C28" s="97">
         <v>50000</v>
       </c>
-      <c r="D28" s="99">
+      <c r="D28" s="98">
         <v>30000</v>
       </c>
-      <c r="E28" s="100" t="s">
+      <c r="E28" s="99" t="s">
         <v>355</v>
       </c>
-      <c r="F28" s="106"/>
-      <c r="G28" s="107"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="106"/>
     </row>
-    <row r="29" spans="1:7" s="87" customFormat="1" ht="30" customHeight="1">
-      <c r="A29" s="177" t="s">
+    <row r="29" spans="1:7" s="86" customFormat="1" ht="30" customHeight="1">
+      <c r="A29" s="176" t="s">
         <v>356</v>
       </c>
-      <c r="B29" s="110" t="s">
+      <c r="B29" s="109" t="s">
         <v>357</v>
       </c>
-      <c r="C29" s="89">
+      <c r="C29" s="88">
         <v>120000</v>
       </c>
-      <c r="D29" s="90">
+      <c r="D29" s="89">
         <v>80000</v>
       </c>
-      <c r="E29" s="91" t="s">
+      <c r="E29" s="90" t="s">
         <v>358</v>
       </c>
-      <c r="F29" s="92">
+      <c r="F29" s="91">
         <v>120000</v>
       </c>
-      <c r="G29" s="83">
+      <c r="G29" s="82">
         <v>80000</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="87" customFormat="1" ht="30" customHeight="1">
-      <c r="A30" s="177"/>
-      <c r="B30" s="111" t="s">
+    <row r="30" spans="1:7" s="86" customFormat="1" ht="30" customHeight="1">
+      <c r="A30" s="176"/>
+      <c r="B30" s="110" t="s">
         <v>359</v>
       </c>
-      <c r="C30" s="94">
+      <c r="C30" s="93">
         <v>120000</v>
       </c>
-      <c r="D30" s="86">
+      <c r="D30" s="85">
         <v>80000</v>
       </c>
-      <c r="E30" s="95" t="s">
+      <c r="E30" s="94" t="s">
         <v>360</v>
       </c>
-      <c r="F30" s="85">
+      <c r="F30" s="84">
         <v>120000</v>
       </c>
-      <c r="G30" s="86">
+      <c r="G30" s="85">
         <v>80000</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="87" customFormat="1" ht="30" customHeight="1">
-      <c r="A31" s="177"/>
-      <c r="B31" s="111" t="s">
+    <row r="31" spans="1:7" s="86" customFormat="1" ht="30" customHeight="1">
+      <c r="A31" s="176"/>
+      <c r="B31" s="110" t="s">
         <v>361</v>
       </c>
-      <c r="C31" s="94">
+      <c r="C31" s="93">
         <v>50000</v>
       </c>
-      <c r="D31" s="86">
+      <c r="D31" s="85">
         <v>30000</v>
       </c>
-      <c r="E31" s="95" t="s">
+      <c r="E31" s="94" t="s">
         <v>362</v>
       </c>
-      <c r="F31" s="85">
+      <c r="F31" s="84">
         <v>50000</v>
       </c>
-      <c r="G31" s="86">
+      <c r="G31" s="85">
         <v>30000</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="87" customFormat="1" ht="30" customHeight="1">
-      <c r="A32" s="177"/>
-      <c r="B32" s="111" t="s">
+    <row r="32" spans="1:7" s="86" customFormat="1" ht="30" customHeight="1">
+      <c r="A32" s="176"/>
+      <c r="B32" s="110" t="s">
         <v>363</v>
       </c>
-      <c r="C32" s="94">
+      <c r="C32" s="93">
         <v>150000</v>
       </c>
-      <c r="D32" s="86">
+      <c r="D32" s="85">
         <v>100000</v>
       </c>
-      <c r="E32" s="95" t="s">
+      <c r="E32" s="94" t="s">
         <v>364</v>
       </c>
-      <c r="F32" s="85">
+      <c r="F32" s="84">
         <v>150000</v>
       </c>
-      <c r="G32" s="86">
+      <c r="G32" s="85">
         <v>80000</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="87" customFormat="1" ht="30" customHeight="1">
-      <c r="A33" s="177"/>
-      <c r="B33" s="112" t="s">
+    <row r="33" spans="1:7" s="86" customFormat="1" ht="30" customHeight="1">
+      <c r="A33" s="176"/>
+      <c r="B33" s="111" t="s">
         <v>365</v>
       </c>
-      <c r="C33" s="94">
+      <c r="C33" s="93">
         <v>80000</v>
       </c>
-      <c r="D33" s="86">
+      <c r="D33" s="85">
         <v>40000</v>
       </c>
-      <c r="E33" s="95" t="s">
+      <c r="E33" s="94" t="s">
         <v>366</v>
       </c>
-      <c r="F33" s="85">
+      <c r="F33" s="84">
         <v>80000</v>
       </c>
-      <c r="G33" s="86">
+      <c r="G33" s="85">
         <v>30000</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="87" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A34" s="178"/>
-      <c r="B34" s="108" t="s">
+    <row r="34" spans="1:7" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A34" s="177"/>
+      <c r="B34" s="107" t="s">
         <v>367</v>
       </c>
-      <c r="C34" s="98">
+      <c r="C34" s="97">
         <v>50000</v>
       </c>
-      <c r="D34" s="99">
+      <c r="D34" s="98">
         <v>30000</v>
       </c>
-      <c r="E34" s="100" t="s">
+      <c r="E34" s="99" t="s">
         <v>368</v>
       </c>
-      <c r="F34" s="85">
+      <c r="F34" s="84">
         <v>50000</v>
       </c>
-      <c r="G34" s="86">
+      <c r="G34" s="85">
         <v>30000</v>
       </c>
     </row>
@@ -22551,7 +22572,7 @@
   </sheetPr>
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="98" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="98" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -22559,119 +22580,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="35.1" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="116" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A2" s="116" t="s">
+    <row r="2" spans="1:1" s="115" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A2" s="115" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="116" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A3" s="116" t="s">
+    <row r="3" spans="1:1" s="115" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="115" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A4" s="114"/>
+      <c r="A4" s="113"/>
     </row>
     <row r="5" spans="1:1" ht="35.1" customHeight="1">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="114" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="116" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A6" s="116" t="s">
+    <row r="6" spans="1:1" s="115" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A6" s="115" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="1:1" s="116" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A7" s="116" t="s">
+    <row r="7" spans="1:1" s="115" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A7" s="115" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="116" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A8" s="116" t="s">
+    <row r="8" spans="1:1" s="115" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A8" s="115" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="116" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A9" s="116" t="s">
+    <row r="9" spans="1:1" s="115" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A9" s="115" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="10" spans="1:1" s="116" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A10" s="116" t="s">
+    <row r="10" spans="1:1" s="115" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A10" s="115" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="116" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A11" s="116" t="s">
+    <row r="11" spans="1:1" s="115" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A11" s="115" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="116" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A12" s="116" t="s">
+    <row r="12" spans="1:1" s="115" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A12" s="115" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="116" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A13" s="116" t="s">
+    <row r="13" spans="1:1" s="115" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A13" s="115" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="14" spans="1:1" s="116" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A14" s="116" t="s">
+    <row r="14" spans="1:1" s="115" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A14" s="115" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="15" spans="1:1" s="116" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A15" s="116" t="s">
+    <row r="15" spans="1:1" s="115" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A15" s="115" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:1" s="116" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A16" s="117" t="s">
+    <row r="16" spans="1:1" s="115" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A16" s="116" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A17" s="114"/>
+      <c r="A17" s="113"/>
     </row>
     <row r="18" spans="1:1" ht="35.1" customHeight="1">
-      <c r="A18" s="115" t="s">
+      <c r="A18" s="114" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="118" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A19" s="116" t="s">
+    <row r="19" spans="1:1" s="117" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A19" s="115" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="118" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A20" s="116" t="s">
+    <row r="20" spans="1:1" s="117" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A20" s="115" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="114" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="21" spans="1:1" s="113" customFormat="1" ht="18.75" customHeight="1"/>
     <row r="22" spans="1:1" ht="35.1" customHeight="1">
-      <c r="A22" s="115" t="s">
+      <c r="A22" s="114" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="113" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A23" s="116" t="s">
+    <row r="23" spans="1:1" s="112" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A23" s="115" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="113" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A24" s="116" t="s">
+    <row r="24" spans="1:1" s="112" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A24" s="115" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="113" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A25" s="116" t="s">
+    <row r="25" spans="1:1" s="112" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A25" s="115" t="s">
         <v>375</v>
       </c>
     </row>
